--- a/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
+++ b/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E60376-9167-4F79-9700-3486B7116792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
   <si>
     <t>PERIOD</t>
   </si>
@@ -570,12 +563,21 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>COOPERATIVE OFFICER</t>
+  </si>
+  <si>
+    <t>COOP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -942,10 +944,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -976,6 +975,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1467,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1510,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1574,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1634,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1700,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1763,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1861,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1920,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1985,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2028,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2103,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2289,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2355,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2413,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2479,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2535,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2608,7 +2610,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2653,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2717,7 +2719,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2775,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2873,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2936,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,25 +3002,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K405" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3030,13 +3033,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3045,14 +3048,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3356,7 +3359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3366,7 +3369,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3374,34 +3377,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1575" topLeftCell="A383" activePane="bottomLeft"/>
-      <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A388" activePane="bottomLeft"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B400" sqref="B400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3422,11 +3425,13 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60"/>
+      <c r="B3" s="60" t="s">
+        <v>177</v>
+      </c>
       <c r="C3" s="60"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3440,16 +3445,20 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="60" t="s">
+        <v>176</v>
+      </c>
       <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="65"/>
+      <c r="F4" s="65" t="s">
+        <v>178</v>
+      </c>
       <c r="G4" s="65"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
@@ -3458,7 +3467,7 @@
       <c r="J4" s="65"/>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3466,7 +3475,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3479,7 +3488,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -3496,7 +3505,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3531,8 +3540,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
@@ -3540,7 +3549,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>315.54000000000002</v>
+        <v>314.54000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3550,16 +3559,16 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>419.58000000000004</v>
+        <v>418.58000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="13"/>
@@ -3579,11 +3588,11 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="13"/>
@@ -3599,8 +3608,8 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="11"/>
@@ -3617,7 +3626,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>50</v>
@@ -3658,11 +3667,11 @@
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="51">
+      <c r="K14" s="50">
         <v>47270</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -3683,7 +3692,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <f t="shared" ref="A16:A20" si="0">EDATE(A15,1)</f>
         <v>36008</v>
@@ -3710,7 +3719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -3733,11 +3742,11 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="52">
+      <c r="K17" s="51">
         <v>47362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -3764,7 +3773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -3791,7 +3800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3818,8 +3827,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="20"/>
@@ -3836,7 +3845,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>36161</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3881,7 +3890,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>50</v>
@@ -3900,7 +3909,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <f>EDATE(A22,1)</f>
         <v>36192</v>
@@ -3925,7 +3934,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <f t="shared" ref="A26:A36" si="1">EDATE(A25,1)</f>
         <v>36220</v>
@@ -3946,7 +3955,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -3969,11 +3978,11 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="51">
+      <c r="K27" s="50">
         <v>41365</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -3988,11 +3997,11 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="51">
+      <c r="K28" s="50">
         <v>43922</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>50</v>
@@ -4011,7 +4020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36281</v>
@@ -4032,7 +4041,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4053,7 +4062,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="54">
+      <c r="K32" s="53">
         <v>45113</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <f>EDATE(A32,1)</f>
         <v>36373</v>
@@ -4103,11 +4112,11 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="51">
+      <c r="K33" s="50">
         <v>42948</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4128,7 +4137,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4149,7 +4158,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4176,7 +4185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <f>EDATE(A36,1)</f>
         <v>36495</v>
@@ -4201,11 +4210,11 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="13"/>
@@ -4221,7 +4230,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>36526</v>
       </c>
@@ -4241,7 +4250,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <f>EDATE(A39,1)</f>
         <v>36557</v>
@@ -4262,7 +4271,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <f t="shared" ref="A41:A50" si="2">EDATE(A40,1)</f>
         <v>36586</v>
@@ -4283,7 +4292,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -4304,7 +4313,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -4325,7 +4334,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -4346,7 +4355,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -4367,7 +4376,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -4388,7 +4397,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -4409,7 +4418,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <f>EDATE(A47,1)</f>
         <v>36800</v>
@@ -4430,7 +4439,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -4457,7 +4466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -4482,8 +4491,8 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="52" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="20"/>
@@ -4500,7 +4509,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>36892</v>
       </c>
@@ -4526,7 +4535,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <f>EDATE(A52,1)</f>
         <v>36923</v>
@@ -4547,7 +4556,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <f t="shared" ref="A54:A63" si="3">EDATE(A53,1)</f>
         <v>36951</v>
@@ -4568,7 +4577,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -4589,7 +4598,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -4616,7 +4625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -4637,7 +4646,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -4658,7 +4667,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -4679,7 +4688,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -4700,7 +4709,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <f>EDATE(A60,1)</f>
         <v>37165</v>
@@ -4721,7 +4730,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -4748,7 +4757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -4769,8 +4778,8 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="53" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="20"/>
@@ -4787,7 +4796,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>37257</v>
       </c>
@@ -4807,7 +4816,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <f>EDATE(A65,1)</f>
         <v>37288</v>
@@ -4828,7 +4837,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <f t="shared" ref="A67:A81" si="4">EDATE(A66,1)</f>
         <v>37316</v>
@@ -4849,7 +4858,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -4870,7 +4879,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -4893,11 +4902,11 @@
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="51">
+      <c r="K69" s="50">
         <v>41395</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -4912,11 +4921,11 @@
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="54">
+      <c r="K70" s="53">
         <v>45063</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>63</v>
@@ -4933,7 +4942,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -4952,7 +4961,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4967,11 +4976,11 @@
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="51">
+      <c r="K73" s="50">
         <v>46508</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <f>EDATE(A69,1)</f>
         <v>37408</v>
@@ -4998,7 +5007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
@@ -5017,7 +5026,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <f>EDATE(A74,1)</f>
         <v>37438</v>
@@ -5038,7 +5047,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5061,11 +5070,11 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="54">
+      <c r="K77" s="53">
         <v>45140</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5086,7 +5095,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <f>EDATE(A78,1)</f>
         <v>37530</v>
@@ -5107,7 +5116,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -5128,7 +5137,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5153,8 +5162,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="52" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="20"/>
@@ -5171,7 +5180,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>37622</v>
       </c>
@@ -5191,7 +5200,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5212,7 +5221,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <f t="shared" ref="A85:A94" si="5">EDATE(A84,1)</f>
         <v>37681</v>
@@ -5233,7 +5242,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -5254,7 +5263,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -5275,7 +5284,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -5296,7 +5305,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -5317,7 +5326,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5338,7 +5347,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5359,7 +5368,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -5380,7 +5389,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5407,7 +5416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -5432,8 +5441,8 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="53" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B95" s="20"/>
@@ -5450,7 +5459,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <v>37987</v>
       </c>
@@ -5470,7 +5479,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <f>EDATE(A96,1)</f>
         <v>38018</v>
@@ -5491,7 +5500,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <f t="shared" ref="A98:A106" si="6">EDATE(A97,1)</f>
         <v>38047</v>
@@ -5512,7 +5521,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -5533,7 +5542,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -5558,7 +5567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -5581,11 +5590,11 @@
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="54">
+      <c r="K101" s="53">
         <v>45078</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -5606,7 +5615,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -5627,7 +5636,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -5648,7 +5657,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -5669,7 +5678,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <f t="shared" si="6"/>
         <v>38292</v>
@@ -5690,7 +5699,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39">
         <f>EDATE(A106,1)</f>
         <v>38322</v>
@@ -5717,7 +5726,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>67</v>
@@ -5737,8 +5746,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="53" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="52" t="s">
         <v>84</v>
       </c>
       <c r="B109" s="20"/>
@@ -5755,7 +5764,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
         <v>38353</v>
       </c>
@@ -5775,7 +5784,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
         <f>EDATE(A110,1)</f>
         <v>38384</v>
@@ -5796,7 +5805,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <f t="shared" ref="A112:A122" si="7">EDATE(A111,1)</f>
         <v>38412</v>
@@ -5817,7 +5826,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -5840,11 +5849,11 @@
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="54">
+      <c r="K113" s="53">
         <v>45024</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>85</v>
@@ -5861,7 +5870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39">
         <f>EDATE(A113,1)</f>
         <v>38473</v>
@@ -5882,7 +5891,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -5905,11 +5914,11 @@
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="51">
+      <c r="K116" s="50">
         <v>46905</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -5930,7 +5939,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -5951,7 +5960,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -5972,7 +5981,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -5993,7 +6002,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -6016,11 +6025,11 @@
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="51">
+      <c r="K121" s="50">
         <v>45962</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <f t="shared" si="7"/>
         <v>38687</v>
@@ -6043,11 +6052,11 @@
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="54">
+      <c r="K122" s="53">
         <v>45268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="20" t="s">
         <v>50</v>
@@ -6065,11 +6074,11 @@
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="51">
+      <c r="K123" s="50">
         <v>41974</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>67</v>
@@ -6091,7 +6100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>71</v>
@@ -6111,8 +6120,8 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="53" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="52" t="s">
         <v>88</v>
       </c>
       <c r="B126" s="20"/>
@@ -6129,7 +6138,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39">
         <v>38718</v>
       </c>
@@ -6153,7 +6162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39">
         <f>EDATE(A127,1)</f>
         <v>38749</v>
@@ -6176,11 +6185,11 @@
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="54">
+      <c r="K128" s="53">
         <v>44985</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39">
         <f t="shared" ref="A129:A139" si="8">EDATE(A128,1)</f>
         <v>38777</v>
@@ -6201,7 +6210,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <f t="shared" si="8"/>
         <v>38808</v>
@@ -6222,7 +6231,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <f t="shared" si="8"/>
         <v>38838</v>
@@ -6243,7 +6252,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -6266,11 +6275,11 @@
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="54">
+      <c r="K132" s="53">
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6293,11 +6302,11 @@
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="54">
+      <c r="K133" s="53">
         <v>45117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39">
         <f t="shared" si="8"/>
         <v>38930</v>
@@ -6318,7 +6327,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -6345,7 +6354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -6372,7 +6381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6392,7 +6401,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39">
         <f>EDATE(A136,1)</f>
         <v>39022</v>
@@ -6413,7 +6422,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -6434,8 +6443,8 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="53" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="52" t="s">
         <v>94</v>
       </c>
       <c r="B140" s="20"/>
@@ -6452,7 +6461,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39">
         <v>39083</v>
       </c>
@@ -6472,7 +6481,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39114</v>
@@ -6493,7 +6502,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A151" si="9">EDATE(A142,1)</f>
         <v>39142</v>
@@ -6514,7 +6523,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>39173</v>
@@ -6537,11 +6546,11 @@
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="51">
+      <c r="K144" s="50">
         <v>42461</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>39203</v>
@@ -6562,7 +6571,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -6583,7 +6592,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>39264</v>
@@ -6604,7 +6613,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -6625,7 +6634,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -6648,11 +6657,11 @@
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="54">
+      <c r="K149" s="53">
         <v>45182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -6673,7 +6682,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -6700,7 +6709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>95</v>
@@ -6717,7 +6726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>71</v>
@@ -6736,7 +6745,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>39417</v>
@@ -6757,8 +6766,8 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="57" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="56" t="s">
         <v>99</v>
       </c>
       <c r="B155" s="20"/>
@@ -6775,7 +6784,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="39">
         <v>39448</v>
       </c>
@@ -6795,7 +6804,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="39">
         <f>EDATE(A156,1)</f>
         <v>39479</v>
@@ -6822,7 +6831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="39">
         <f t="shared" ref="A158:A166" si="10">EDATE(A157,1)</f>
         <v>39508</v>
@@ -6843,7 +6852,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="39">
         <f t="shared" si="10"/>
         <v>39539</v>
@@ -6864,7 +6873,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="39">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -6885,7 +6894,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="39">
         <f t="shared" si="10"/>
         <v>39600</v>
@@ -6906,7 +6915,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="39">
         <f t="shared" si="10"/>
         <v>39630</v>
@@ -6927,7 +6936,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="39">
         <f t="shared" si="10"/>
         <v>39661</v>
@@ -6948,7 +6957,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="39">
         <f t="shared" si="10"/>
         <v>39692</v>
@@ -6969,7 +6978,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="39">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -6990,7 +6999,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="39">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -7015,7 +7024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>63</v>
@@ -7032,7 +7041,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>103</v>
@@ -7047,11 +7056,11 @@
       <c r="H168" s="38"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="54">
+      <c r="K168" s="53">
         <v>45263</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="39">
         <f>EDATE(A166,1)</f>
         <v>39783</v>
@@ -7072,8 +7081,8 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="53" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B170" s="20"/>
@@ -7090,7 +7099,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="39">
         <v>39814</v>
       </c>
@@ -7112,11 +7121,11 @@
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="54">
+      <c r="K171" s="53">
         <v>44935</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>39845</v>
@@ -7128,7 +7137,7 @@
         <v>1.25</v>
       </c>
       <c r="D172" s="42"/>
-      <c r="E172" s="56"/>
+      <c r="E172" s="55"/>
       <c r="F172" s="15"/>
       <c r="G172" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -7137,13 +7146,13 @@
       <c r="H172" s="42">
         <v>1</v>
       </c>
-      <c r="I172" s="56"/>
+      <c r="I172" s="55"/>
       <c r="J172" s="12"/>
-      <c r="K172" s="52">
+      <c r="K172" s="51">
         <v>41306</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" ref="A173:A180" si="11">EDATE(A172,1)</f>
         <v>39873</v>
@@ -7164,7 +7173,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>39904</v>
@@ -7187,11 +7196,11 @@
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="51">
+      <c r="K174" s="50">
         <v>46844</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>39934</v>
@@ -7212,7 +7221,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>39965</v>
@@ -7235,11 +7244,11 @@
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="54">
+      <c r="K176" s="53">
         <v>45078</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -7260,7 +7269,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -7281,7 +7290,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -7302,7 +7311,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>40087</v>
@@ -7329,7 +7338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>95</v>
@@ -7346,7 +7355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>92</v>
@@ -7365,7 +7374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>40118</v>
@@ -7388,11 +7397,11 @@
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="54">
+      <c r="K183" s="53">
         <v>45241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>40148</v>
@@ -7413,8 +7422,8 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="53" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B185" s="20"/>
@@ -7431,7 +7440,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="39">
         <v>40179</v>
       </c>
@@ -7453,11 +7462,11 @@
       </c>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="54">
+      <c r="K186" s="53">
         <v>44934</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="39">
         <f>EDATE(A186,1)</f>
         <v>40210</v>
@@ -7482,7 +7491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="39">
         <f t="shared" ref="A188:A197" si="12">EDATE(A187,1)</f>
         <v>40238</v>
@@ -7503,7 +7512,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -7524,7 +7533,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="39">
         <f t="shared" si="12"/>
         <v>40299</v>
@@ -7551,7 +7560,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="39">
         <f t="shared" si="12"/>
         <v>40330</v>
@@ -7572,7 +7581,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="39">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -7593,7 +7602,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="39">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -7616,11 +7625,11 @@
       </c>
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
-      <c r="K193" s="51">
+      <c r="K193" s="50">
         <v>43678</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>50</v>
@@ -7635,11 +7644,11 @@
       </c>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="54">
+      <c r="K194" s="53">
         <v>45177</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="39">
         <f>EDATE(A193,1)</f>
         <v>40422</v>
@@ -7660,7 +7669,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -7681,7 +7690,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="39">
         <f t="shared" si="12"/>
         <v>40483</v>
@@ -7704,11 +7713,11 @@
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="54">
+      <c r="K197" s="53">
         <v>45238</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="39"/>
       <c r="B198" s="20" t="s">
         <v>50</v>
@@ -7726,11 +7735,11 @@
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="54">
+      <c r="K198" s="53">
         <v>45242</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="39">
         <f>EDATE(A197,1)</f>
         <v>40513</v>
@@ -7755,8 +7764,8 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="53" t="s">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B200" s="20"/>
@@ -7773,7 +7782,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="39">
         <v>40544</v>
       </c>
@@ -7795,11 +7804,11 @@
       </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="51">
+      <c r="K201" s="50">
         <v>41640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>51</v>
@@ -7818,7 +7827,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="39">
         <f>EDATE(A201,1)</f>
         <v>40575</v>
@@ -7843,7 +7852,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="39">
         <f t="shared" ref="A204:A212" si="13">EDATE(A203,1)</f>
         <v>40603</v>
@@ -7866,11 +7875,11 @@
       <c r="H204" s="38"/>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="51">
+      <c r="K204" s="50">
         <v>43160</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="39">
         <f t="shared" si="13"/>
         <v>40634</v>
@@ -7891,7 +7900,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="39">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -7916,7 +7925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="39">
         <f t="shared" si="13"/>
         <v>40695</v>
@@ -7937,7 +7946,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="39">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -7958,7 +7967,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="39">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -7979,7 +7988,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="39">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -8000,7 +8009,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="39">
         <f t="shared" si="13"/>
         <v>40817</v>
@@ -8027,7 +8036,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="39">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -8039,7 +8048,7 @@
         <v>1.25</v>
       </c>
       <c r="D212" s="42"/>
-      <c r="E212" s="56"/>
+      <c r="E212" s="55"/>
       <c r="F212" s="15"/>
       <c r="G212" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -8048,32 +8057,32 @@
       <c r="H212" s="42">
         <v>1</v>
       </c>
-      <c r="I212" s="56"/>
+      <c r="I212" s="55"/>
       <c r="J212" s="12"/>
-      <c r="K212" s="58">
+      <c r="K212" s="57">
         <v>45241</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="39"/>
       <c r="B213" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C213" s="13"/>
       <c r="D213" s="42"/>
-      <c r="E213" s="56"/>
+      <c r="E213" s="55"/>
       <c r="F213" s="15"/>
       <c r="G213" s="41"/>
       <c r="H213" s="42">
         <v>1</v>
       </c>
-      <c r="I213" s="56"/>
+      <c r="I213" s="55"/>
       <c r="J213" s="12"/>
       <c r="K213" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>40878</v>
@@ -8100,8 +8109,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="53" t="s">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B215" s="20"/>
@@ -8118,7 +8127,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="39">
         <v>40909</v>
       </c>
@@ -8138,7 +8147,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="39">
         <f>EDATE(A216,1)</f>
         <v>40940</v>
@@ -8165,7 +8174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="39"/>
       <c r="B218" s="20" t="s">
         <v>63</v>
@@ -8185,7 +8194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="39">
         <f>EDATE(A217,1)</f>
         <v>40969</v>
@@ -8206,7 +8215,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="39">
         <f t="shared" ref="A220:A229" si="14">EDATE(A219,1)</f>
         <v>41000</v>
@@ -8227,7 +8236,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="39">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -8248,7 +8257,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="39">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -8269,7 +8278,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="39">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -8292,11 +8301,11 @@
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="54">
+      <c r="K223" s="53">
         <v>45113</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -8314,11 +8323,11 @@
       </c>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="54">
+      <c r="K224" s="53">
         <v>45109</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="39">
         <f>EDATE(A223,1)</f>
         <v>41122</v>
@@ -8339,7 +8348,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="39">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -8360,7 +8369,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="39">
         <f>EDATE(A226,1)</f>
         <v>41183</v>
@@ -8387,7 +8396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="39">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -8408,7 +8417,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="39">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -8433,8 +8442,8 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="53" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B230" s="20"/>
@@ -8451,7 +8460,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="39">
         <v>41275</v>
       </c>
@@ -8473,11 +8482,11 @@
       </c>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="54">
+      <c r="K231" s="53">
         <v>44930</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>51</v>
@@ -8499,7 +8508,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="39">
         <f>EDATE(A231,1)</f>
         <v>41306</v>
@@ -8526,7 +8535,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>63</v>
@@ -8546,7 +8555,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>41334</v>
@@ -8567,7 +8576,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="39">
         <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>41365</v>
@@ -8588,7 +8597,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="39">
         <f t="shared" si="15"/>
         <v>41395</v>
@@ -8611,11 +8620,11 @@
       </c>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="51">
+      <c r="K237" s="50">
         <v>46874</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="39">
         <f t="shared" si="15"/>
         <v>41426</v>
@@ -8636,7 +8645,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="39">
         <f t="shared" si="15"/>
         <v>41456</v>
@@ -8657,7 +8666,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -8678,7 +8687,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -8703,7 +8712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="39">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -8726,7 +8735,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="39">
         <f t="shared" si="15"/>
         <v>41579</v>
@@ -8753,7 +8762,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="39">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -8776,11 +8785,11 @@
       <c r="H244" s="38"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="54">
+      <c r="K244" s="53">
         <v>45263</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>71</v>
@@ -8802,8 +8811,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="53" t="s">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="52" t="s">
         <v>131</v>
       </c>
       <c r="B246" s="20"/>
@@ -8820,7 +8829,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="39">
         <v>41640</v>
       </c>
@@ -8842,11 +8851,11 @@
       </c>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="51">
+      <c r="K247" s="50">
         <v>44927</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -8861,11 +8870,11 @@
       </c>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="54">
+      <c r="K248" s="53">
         <v>44936</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>63</v>
@@ -8882,7 +8891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="39">
         <f>EDATE(A247,1)</f>
         <v>41671</v>
@@ -8903,7 +8912,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="39">
         <f t="shared" ref="A251:A262" si="16">EDATE(A250,1)</f>
         <v>41699</v>
@@ -8926,11 +8935,11 @@
       <c r="H251" s="38"/>
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
-      <c r="K251" s="51">
+      <c r="K251" s="50">
         <v>43891</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="39">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -8951,7 +8960,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -8974,11 +8983,11 @@
       </c>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
-      <c r="K253" s="54">
+      <c r="K253" s="53">
         <v>45048</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>133</v>
@@ -8997,7 +9006,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="39"/>
       <c r="B255" s="20" t="s">
         <v>51</v>
@@ -9016,7 +9025,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>85</v>
@@ -9033,7 +9042,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="39">
         <f>EDATE(A253,1)</f>
         <v>41791</v>
@@ -9054,7 +9063,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="39">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -9077,11 +9086,11 @@
       </c>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="54">
+      <c r="K258" s="53">
         <v>45115</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>50</v>
@@ -9099,11 +9108,11 @@
       </c>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="51">
+      <c r="K259" s="50">
         <v>45839</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="39">
         <f>EDATE(A258,1)</f>
         <v>41852</v>
@@ -9124,7 +9133,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="39">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -9151,7 +9160,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -9178,7 +9187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>71</v>
@@ -9200,7 +9209,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="39">
         <f>EDATE(A262,1)</f>
         <v>41944</v>
@@ -9223,11 +9232,11 @@
       </c>
       <c r="I264" s="9"/>
       <c r="J264" s="11"/>
-      <c r="K264" s="51">
+      <c r="K264" s="50">
         <v>47058</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="39">
         <f>EDATE(A264,1)</f>
         <v>41974</v>
@@ -9248,8 +9257,8 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="53" t="s">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B266" s="20"/>
@@ -9266,7 +9275,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39">
         <v>42005</v>
       </c>
@@ -9286,7 +9295,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="39">
         <f>EDATE(A267,1)</f>
         <v>42036</v>
@@ -9311,7 +9320,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="39">
         <f t="shared" ref="A269:A278" si="17">EDATE(A268,1)</f>
         <v>42064</v>
@@ -9336,7 +9345,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="39">
         <f t="shared" si="17"/>
         <v>42095</v>
@@ -9359,11 +9368,11 @@
       <c r="H270" s="38"/>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="51">
+      <c r="K270" s="50">
         <v>11049</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="39">
         <f t="shared" si="17"/>
         <v>42125</v>
@@ -9384,7 +9393,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="39">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -9405,7 +9414,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="39">
         <f t="shared" si="17"/>
         <v>42186</v>
@@ -9426,7 +9435,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -9451,7 +9460,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -9474,11 +9483,11 @@
       <c r="H275" s="38"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
-      <c r="K275" s="51">
+      <c r="K275" s="50">
         <v>42614</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -9496,11 +9505,11 @@
       </c>
       <c r="I276" s="9"/>
       <c r="J276" s="11"/>
-      <c r="K276" s="51">
+      <c r="K276" s="50">
         <v>43344</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="39">
         <f>EDATE(A275,1)</f>
         <v>42278</v>
@@ -9527,7 +9536,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="39">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -9550,11 +9559,11 @@
       </c>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="54">
+      <c r="K278" s="53">
         <v>45240</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>145</v>
@@ -9569,11 +9578,11 @@
       <c r="H279" s="38"/>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
-      <c r="K279" s="54">
+      <c r="K279" s="53">
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>50</v>
@@ -9588,11 +9597,11 @@
       </c>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="51">
+      <c r="K280" s="50">
         <v>46692</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>50</v>
@@ -9607,11 +9616,11 @@
       </c>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
-      <c r="K281" s="54">
+      <c r="K281" s="53">
         <v>45262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>145</v>
@@ -9626,11 +9635,11 @@
       <c r="H282" s="38"/>
       <c r="I282" s="9"/>
       <c r="J282" s="11"/>
-      <c r="K282" s="54">
+      <c r="K282" s="53">
         <v>45268</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="39">
         <f>EDATE(A278,1)</f>
         <v>42339</v>
@@ -9651,8 +9660,8 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="53" t="s">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B284" s="20"/>
@@ -9669,7 +9678,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="39">
         <v>42370</v>
       </c>
@@ -9691,11 +9700,11 @@
       <c r="H285" s="38"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="51">
+      <c r="K285" s="50">
         <v>43831</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="39">
         <f>EDATE(A285,1)</f>
         <v>42401</v>
@@ -9720,7 +9729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>145</v>
@@ -9740,7 +9749,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="39">
         <f>EDATE(A286,1)</f>
         <v>42430</v>
@@ -9761,7 +9770,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="39">
         <f t="shared" ref="A289:A299" si="18">EDATE(A288,1)</f>
         <v>42461</v>
@@ -9782,7 +9791,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -9805,11 +9814,11 @@
       </c>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="51">
+      <c r="K290" s="50">
         <v>46143</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="39">
         <f t="shared" si="18"/>
         <v>42522</v>
@@ -9830,7 +9839,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -9855,7 +9864,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -9876,7 +9885,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -9899,11 +9908,11 @@
       </c>
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
-      <c r="K294" s="51">
+      <c r="K294" s="50">
         <v>43709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>145</v>
@@ -9918,11 +9927,11 @@
       <c r="H295" s="38"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="54">
+      <c r="K295" s="53">
         <v>45192</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="39"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -9937,11 +9946,11 @@
       </c>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="54">
+      <c r="K296" s="53">
         <v>45213</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="39">
         <f>EDATE(A294,1)</f>
         <v>42644</v>
@@ -9962,7 +9971,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="39">
         <f>EDATE(A297,1)</f>
         <v>42675</v>
@@ -9983,7 +9992,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -10008,8 +10017,8 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="53" t="s">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="52" t="s">
         <v>148</v>
       </c>
       <c r="B300" s="20"/>
@@ -10026,7 +10035,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="39">
         <v>42736</v>
       </c>
@@ -10048,11 +10057,11 @@
       </c>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
-      <c r="K301" s="51">
+      <c r="K301" s="50">
         <v>43101</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="39">
         <f>EDATE(A301,1)</f>
         <v>42767</v>
@@ -10075,11 +10084,11 @@
       <c r="H302" s="38"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="54">
+      <c r="K302" s="53">
         <v>44966</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="39"/>
       <c r="B303" s="20" t="s">
         <v>63</v>
@@ -10099,7 +10108,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="39">
         <f>EDATE(A302,1)</f>
         <v>42795</v>
@@ -10120,7 +10129,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="39">
         <f t="shared" ref="A305:A312" si="19">EDATE(A304,1)</f>
         <v>42826</v>
@@ -10143,11 +10152,11 @@
       </c>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
-      <c r="K305" s="51">
+      <c r="K305" s="50">
         <v>43922</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -10168,7 +10177,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -10191,11 +10200,11 @@
       </c>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="51">
+      <c r="K307" s="50">
         <v>44713</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -10216,7 +10225,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="39">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -10239,11 +10248,11 @@
       <c r="H309" s="38"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="54">
+      <c r="K309" s="53">
         <v>45149</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -10266,11 +10275,11 @@
       </c>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="51">
+      <c r="K310" s="50">
         <v>43709</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -10297,7 +10306,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -10324,7 +10333,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="39">
         <f>EDATE(A312,1)</f>
         <v>43070</v>
@@ -10349,25 +10358,25 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="57" t="s">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="56" t="s">
         <v>152</v>
       </c>
       <c r="B314" s="15"/>
       <c r="C314" s="41"/>
       <c r="D314" s="42"/>
-      <c r="E314" s="56"/>
+      <c r="E314" s="55"/>
       <c r="F314" s="15"/>
       <c r="G314" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H314" s="42"/>
-      <c r="I314" s="56"/>
+      <c r="I314" s="55"/>
       <c r="J314" s="12"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="39">
         <v>43101</v>
       </c>
@@ -10389,11 +10398,11 @@
       </c>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="51">
+      <c r="K315" s="50">
         <v>42736</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>50</v>
@@ -10411,11 +10420,11 @@
       </c>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="51">
+      <c r="K316" s="50">
         <v>45292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="39">
         <f>EDATE(A315,1)</f>
         <v>43132</v>
@@ -10436,7 +10445,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="39">
         <f t="shared" ref="A318:A334" si="20">EDATE(A317,1)</f>
         <v>43160</v>
@@ -10461,7 +10470,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>50</v>
@@ -10474,14 +10483,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H319" s="38"/>
+      <c r="H319" s="38">
+        <v>1</v>
+      </c>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="54">
+      <c r="K319" s="53">
         <v>44991</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>43191</v>
@@ -10504,11 +10515,11 @@
       <c r="H320" s="38"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="51">
+      <c r="K320" s="50">
         <v>43191</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -10526,11 +10537,11 @@
       </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="51">
+      <c r="K321" s="50">
         <v>45017</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>43221</v>
@@ -10553,11 +10564,11 @@
       <c r="H322" s="38"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="54">
+      <c r="K322" s="53">
         <v>45048</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
       <c r="B323" s="20" t="s">
         <v>63</v>
@@ -10574,7 +10585,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>145</v>
@@ -10589,11 +10600,11 @@
       <c r="H324" s="38"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="51">
+      <c r="K324" s="50">
         <v>45413</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>50</v>
@@ -10608,11 +10619,11 @@
       </c>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="51">
+      <c r="K325" s="50">
         <v>45778</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -10627,11 +10638,11 @@
       </c>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
-      <c r="K326" s="51">
+      <c r="K326" s="50">
         <v>11444</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="39">
         <f>EDATE(A322,1)</f>
         <v>43252</v>
@@ -10652,7 +10663,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -10675,11 +10686,11 @@
       </c>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="54">
+      <c r="K328" s="53">
         <v>45111</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -10700,7 +10711,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -10721,7 +10732,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -10744,11 +10755,11 @@
       </c>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="54">
+      <c r="K331" s="53">
         <v>45202</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>145</v>
@@ -10766,11 +10777,11 @@
       <c r="H332" s="38"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="51">
+      <c r="K332" s="50">
         <v>42278</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="39">
         <f>EDATE(A331,1)</f>
         <v>43405</v>
@@ -10793,11 +10804,11 @@
       <c r="H333" s="38"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="54">
+      <c r="K333" s="53">
         <v>45267</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39">
         <f t="shared" si="20"/>
         <v>43435</v>
@@ -10818,8 +10829,8 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="53" t="s">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="52" t="s">
         <v>155</v>
       </c>
       <c r="B335" s="20"/>
@@ -10836,7 +10847,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39">
         <v>43466</v>
       </c>
@@ -10858,11 +10869,11 @@
       </c>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
-      <c r="K336" s="54">
+      <c r="K336" s="53">
         <v>44937</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10887,7 +10898,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="39">
         <f t="shared" ref="A338:A350" si="21">EDATE(A337,1)</f>
         <v>43525</v>
@@ -10908,7 +10919,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -10929,7 +10940,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -10952,11 +10963,11 @@
       </c>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="54">
+      <c r="K340" s="53">
         <v>45048</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>69</v>
@@ -10978,7 +10989,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <f>EDATE(A340,1)</f>
         <v>43617</v>
@@ -11005,7 +11016,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -11028,11 +11039,11 @@
       </c>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
-      <c r="K343" s="54">
+      <c r="K343" s="53">
         <v>45118</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -11050,11 +11061,11 @@
       </c>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
-      <c r="K344" s="54">
+      <c r="K344" s="53">
         <v>44934</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <f>EDATE(A343,1)</f>
         <v>43678</v>
@@ -11075,7 +11086,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -11098,11 +11109,11 @@
       <c r="H346" s="38"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
-      <c r="K346" s="54">
+      <c r="K346" s="53">
         <v>45194</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
       <c r="B347" s="15" t="s">
         <v>53</v>
@@ -11111,20 +11122,20 @@
       <c r="D347" s="42">
         <v>2</v>
       </c>
-      <c r="E347" s="56"/>
+      <c r="E347" s="55"/>
       <c r="F347" s="15"/>
       <c r="G347" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H347" s="42"/>
-      <c r="I347" s="56"/>
+      <c r="I347" s="55"/>
       <c r="J347" s="12"/>
       <c r="K347" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39">
         <f>EDATE(A346,1)</f>
         <v>43739</v>
@@ -11134,18 +11145,18 @@
         <v>1.25</v>
       </c>
       <c r="D348" s="42"/>
-      <c r="E348" s="56"/>
+      <c r="E348" s="55"/>
       <c r="F348" s="15"/>
       <c r="G348" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H348" s="42"/>
-      <c r="I348" s="56"/>
+      <c r="I348" s="55"/>
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <f>EDATE(A348,1)</f>
         <v>43770</v>
@@ -11172,7 +11183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -11193,8 +11204,8 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="53" t="s">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="52" t="s">
         <v>160</v>
       </c>
       <c r="B351" s="20"/>
@@ -11211,7 +11222,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <v>43831</v>
       </c>
@@ -11235,7 +11246,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>95</v>
@@ -11255,7 +11266,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39">
         <f>EDATE(A352,1)</f>
         <v>43862</v>
@@ -11276,7 +11287,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39">
         <f t="shared" ref="A355:A366" si="22">EDATE(A354,1)</f>
         <v>43891</v>
@@ -11297,7 +11308,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -11318,7 +11329,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -11339,7 +11350,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -11362,11 +11373,11 @@
       <c r="H358" s="38"/>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="51">
+      <c r="K358" s="50">
         <v>43252</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -11387,7 +11398,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -11408,7 +11419,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -11420,7 +11431,7 @@
         <v>1.25</v>
       </c>
       <c r="D361" s="42"/>
-      <c r="E361" s="56"/>
+      <c r="E361" s="55"/>
       <c r="F361" s="15"/>
       <c r="G361" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -11429,13 +11440,13 @@
       <c r="H361" s="42">
         <v>1</v>
       </c>
-      <c r="I361" s="56"/>
+      <c r="I361" s="55"/>
       <c r="J361" s="12"/>
-      <c r="K361" s="58">
+      <c r="K361" s="57">
         <v>45179</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="15" t="s">
         <v>145</v>
@@ -11444,17 +11455,17 @@
       <c r="D362" s="42">
         <v>1</v>
       </c>
-      <c r="E362" s="56"/>
+      <c r="E362" s="55"/>
       <c r="F362" s="15"/>
       <c r="G362" s="41"/>
       <c r="H362" s="42"/>
-      <c r="I362" s="56"/>
+      <c r="I362" s="55"/>
       <c r="J362" s="12"/>
-      <c r="K362" s="58">
+      <c r="K362" s="57">
         <v>45177</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
       <c r="B363" s="15" t="s">
         <v>145</v>
@@ -11463,17 +11474,17 @@
       <c r="D363" s="42">
         <v>1</v>
       </c>
-      <c r="E363" s="56"/>
+      <c r="E363" s="55"/>
       <c r="F363" s="15"/>
       <c r="G363" s="41"/>
       <c r="H363" s="42"/>
-      <c r="I363" s="56"/>
+      <c r="I363" s="55"/>
       <c r="J363" s="12"/>
-      <c r="K363" s="58">
+      <c r="K363" s="57">
         <v>45198</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <f>EDATE(A361,1)</f>
         <v>44105</v>
@@ -11494,7 +11505,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -11515,7 +11526,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -11542,8 +11553,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="53" t="s">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="52" t="s">
         <v>166</v>
       </c>
       <c r="B367" s="20"/>
@@ -11560,7 +11571,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>44197</v>
       </c>
@@ -11584,7 +11595,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <f>EDATE(A368,1)</f>
         <v>44228</v>
@@ -11605,7 +11616,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <f t="shared" ref="A370:A379" si="23">EDATE(A369,1)</f>
         <v>44256</v>
@@ -11626,7 +11637,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -11647,7 +11658,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -11668,7 +11679,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -11689,7 +11700,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -11710,7 +11721,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -11731,7 +11742,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -11752,7 +11763,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -11773,7 +11784,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -11783,18 +11794,18 @@
         <v>1.25</v>
       </c>
       <c r="D378" s="42"/>
-      <c r="E378" s="56"/>
+      <c r="E378" s="55"/>
       <c r="F378" s="15"/>
       <c r="G378" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H378" s="42"/>
-      <c r="I378" s="56"/>
+      <c r="I378" s="55"/>
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <f t="shared" si="23"/>
         <v>44531</v>
@@ -11821,7 +11832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39"/>
       <c r="B380" s="20" t="s">
         <v>164</v>
@@ -11843,8 +11854,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" s="53" t="s">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="52" t="s">
         <v>169</v>
       </c>
       <c r="B381" s="20"/>
@@ -11861,7 +11872,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>44562</v>
       </c>
@@ -11881,7 +11892,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <f>EDATE(A382,1)</f>
         <v>44593</v>
@@ -11902,7 +11913,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <f t="shared" ref="A384:A392" si="24">EDATE(A383,1)</f>
         <v>44621</v>
@@ -11929,7 +11940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <f t="shared" si="24"/>
         <v>44652</v>
@@ -11950,7 +11961,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <f t="shared" si="24"/>
         <v>44682</v>
@@ -11975,7 +11986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -11997,7 +12008,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39">
         <f>EDATE(A386,1)</f>
         <v>44713</v>
@@ -12018,7 +12029,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39">
         <f t="shared" si="24"/>
         <v>44743</v>
@@ -12041,11 +12052,11 @@
       <c r="H389" s="38"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
-      <c r="K389" s="51">
+      <c r="K389" s="50">
         <v>44378</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -12054,17 +12065,17 @@
       <c r="D390" s="38"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="41"/>
+      <c r="G390" s="13"/>
       <c r="H390" s="38">
         <v>1</v>
       </c>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="51">
+      <c r="K390" s="50">
         <v>43709</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <f>EDATE(A389,1)</f>
         <v>44774</v>
@@ -12085,7 +12096,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -12099,20 +12110,20 @@
       <c r="D392" s="42">
         <v>1</v>
       </c>
-      <c r="E392" s="56"/>
+      <c r="E392" s="55"/>
       <c r="F392" s="15"/>
       <c r="G392" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H392" s="42"/>
-      <c r="I392" s="56"/>
+      <c r="I392" s="55"/>
       <c r="J392" s="12"/>
-      <c r="K392" s="52">
+      <c r="K392" s="51">
         <v>42614</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
         <v>44835</v>
       </c>
@@ -12132,7 +12143,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="39">
         <v>44866</v>
       </c>
@@ -12154,11 +12165,11 @@
       <c r="H394" s="38"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
-      <c r="K394" s="71">
+      <c r="K394" s="58">
         <v>44890</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <v>44896</v>
       </c>
@@ -12180,12 +12191,12 @@
       <c r="H395" s="38"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
-      <c r="K395" s="71">
+      <c r="K395" s="58">
         <v>44902</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="53" t="s">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396" s="52" t="s">
         <v>172</v>
       </c>
       <c r="B396" s="20"/>
@@ -12202,7 +12213,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39">
         <v>44927</v>
       </c>
@@ -12224,11 +12235,11 @@
       <c r="H397" s="38"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="71">
+      <c r="K397" s="58">
         <v>44946</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <v>44958</v>
       </c>
@@ -12248,31 +12259,37 @@
       <c r="H398" s="38"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
-      <c r="K398" s="71">
+      <c r="K398" s="58">
         <v>44985</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <v>44986</v>
       </c>
-      <c r="B399" s="20"/>
+      <c r="B399" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="C399" s="13">
         <v>1.25</v>
       </c>
-      <c r="D399" s="38"/>
+      <c r="D399" s="38">
+        <v>1</v>
+      </c>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="41">
+      <c r="G399" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H399" s="38"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="15"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K399" s="71">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <v>45017</v>
       </c>
@@ -12290,7 +12307,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39">
         <v>45047</v>
       </c>
@@ -12308,7 +12325,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="15"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>45078</v>
       </c>
@@ -12326,7 +12343,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="39">
         <v>45108</v>
       </c>
@@ -12344,7 +12361,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12360,7 +12377,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12390,11 +12407,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12417,29 +12434,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
@@ -12452,7 +12469,7 @@
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -12481,7 +12498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>91.04</v>
       </c>
@@ -12505,17 +12522,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -12536,7 +12553,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -12563,7 +12580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12589,7 +12606,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12615,7 +12632,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12641,7 +12658,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12667,7 +12684,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12693,7 +12710,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12719,7 +12736,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12745,7 +12762,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12765,7 +12782,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12785,7 +12802,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12805,7 +12822,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -12826,7 +12843,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -12847,7 +12864,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -12868,7 +12885,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -12889,7 +12906,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -12910,7 +12927,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -12931,7 +12948,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -12952,7 +12969,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -12973,7 +12990,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -12994,7 +13011,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13015,7 +13032,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13036,7 +13053,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13057,7 +13074,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13078,7 +13095,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13099,7 +13116,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13120,7 +13137,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13141,7 +13158,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13162,7 +13179,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13183,7 +13200,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13204,7 +13221,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13225,7 +13242,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13234,7 +13251,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13243,7 +13260,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13252,7 +13269,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13261,7 +13278,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13270,7 +13287,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13279,7 +13296,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13288,7 +13305,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13297,7 +13314,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13306,7 +13323,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13315,7 +13332,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13324,7 +13341,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13333,7 +13350,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13342,7 +13359,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13351,7 +13368,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13360,7 +13377,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13369,7 +13386,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13378,7 +13395,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13387,7 +13404,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13396,7 +13413,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13405,7 +13422,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13414,7 +13431,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13423,7 +13440,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13432,7 +13449,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13441,7 +13458,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13450,7 +13467,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13459,7 +13476,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13468,7 +13485,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13477,7 +13494,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13486,7 +13503,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
+++ b/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E60376-9167-4F79-9700-3486B7116792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="179">
   <si>
     <t>PERIOD</t>
   </si>
@@ -577,7 +576,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -980,6 +979,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,9 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,7 +1466,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1509,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1573,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1633,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1699,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1762,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1860,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1920,7 +1919,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1985,7 +1984,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2027,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,7 +2102,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2288,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2354,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2412,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2478,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2534,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2609,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2652,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2718,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2774,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2872,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2935,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,26 +3001,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K405" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K405"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3033,13 +3032,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3048,14 +3047,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3359,7 +3358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3369,7 +3368,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3377,7 +3376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3386,88 +3385,88 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2820" topLeftCell="A388" activePane="bottomLeft"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B400" sqref="B400"/>
+      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="64"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3475,7 +3474,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3488,24 +3487,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3549,7 +3548,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>314.54000000000002</v>
+        <v>315.79000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3559,12 +3558,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>418.58000000000004</v>
+        <v>419.83000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3588,7 +3587,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -3608,7 +3607,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
@@ -3626,7 +3625,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>50</v>
@@ -3671,7 +3670,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -3692,7 +3691,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" ref="A16:A20" si="0">EDATE(A15,1)</f>
         <v>36008</v>
@@ -3719,7 +3718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -3746,7 +3745,7 @@
         <v>47362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -3773,7 +3772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -3800,7 +3799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3827,7 +3826,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>59</v>
       </c>
@@ -3845,7 +3844,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>36161</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3890,7 +3889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>50</v>
@@ -3909,7 +3908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f>EDATE(A22,1)</f>
         <v>36192</v>
@@ -3934,7 +3933,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f t="shared" ref="A26:A36" si="1">EDATE(A25,1)</f>
         <v>36220</v>
@@ -3955,7 +3954,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -3982,7 +3981,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -4001,7 +4000,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>50</v>
@@ -4020,7 +4019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36281</v>
@@ -4041,7 +4040,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4062,7 +4061,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4089,7 +4088,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f>EDATE(A32,1)</f>
         <v>36373</v>
@@ -4116,7 +4115,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4137,7 +4136,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4158,7 +4157,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4185,7 +4184,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f>EDATE(A36,1)</f>
         <v>36495</v>
@@ -4210,7 +4209,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>68</v>
       </c>
@@ -4230,7 +4229,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36526</v>
       </c>
@@ -4250,7 +4249,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f>EDATE(A39,1)</f>
         <v>36557</v>
@@ -4271,7 +4270,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" ref="A41:A50" si="2">EDATE(A40,1)</f>
         <v>36586</v>
@@ -4292,7 +4291,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -4313,7 +4312,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -4334,7 +4333,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -4355,7 +4354,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -4376,7 +4375,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -4397,7 +4396,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -4418,7 +4417,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <f>EDATE(A47,1)</f>
         <v>36800</v>
@@ -4439,7 +4438,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -4466,7 +4465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -4491,7 +4490,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>72</v>
       </c>
@@ -4509,7 +4508,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>36892</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <f>EDATE(A52,1)</f>
         <v>36923</v>
@@ -4556,7 +4555,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f t="shared" ref="A54:A63" si="3">EDATE(A53,1)</f>
         <v>36951</v>
@@ -4577,7 +4576,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -4598,7 +4597,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -4625,7 +4624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -4646,7 +4645,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -4667,7 +4666,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -4688,7 +4687,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -4709,7 +4708,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <f>EDATE(A60,1)</f>
         <v>37165</v>
@@ -4730,7 +4729,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -4757,7 +4756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -4778,7 +4777,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
         <v>76</v>
       </c>
@@ -4796,7 +4795,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>37257</v>
       </c>
@@ -4816,7 +4815,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f>EDATE(A65,1)</f>
         <v>37288</v>
@@ -4837,7 +4836,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f t="shared" ref="A67:A81" si="4">EDATE(A66,1)</f>
         <v>37316</v>
@@ -4858,7 +4857,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -4879,7 +4878,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -4906,7 +4905,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -4925,7 +4924,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>63</v>
@@ -4942,7 +4941,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -4961,7 +4960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4980,7 +4979,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f>EDATE(A69,1)</f>
         <v>37408</v>
@@ -5007,7 +5006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
@@ -5026,7 +5025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <f>EDATE(A74,1)</f>
         <v>37438</v>
@@ -5047,7 +5046,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5074,7 +5073,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5095,7 +5094,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f>EDATE(A78,1)</f>
         <v>37530</v>
@@ -5116,7 +5115,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -5137,7 +5136,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5162,7 +5161,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>81</v>
       </c>
@@ -5180,7 +5179,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>37622</v>
       </c>
@@ -5200,7 +5199,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5221,7 +5220,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" ref="A85:A94" si="5">EDATE(A84,1)</f>
         <v>37681</v>
@@ -5242,7 +5241,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -5263,7 +5262,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -5284,7 +5283,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -5305,7 +5304,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -5326,7 +5325,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5347,7 +5346,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5368,7 +5367,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -5389,7 +5388,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5416,7 +5415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -5441,7 +5440,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
         <v>82</v>
       </c>
@@ -5459,7 +5458,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>37987</v>
       </c>
@@ -5479,7 +5478,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f>EDATE(A96,1)</f>
         <v>38018</v>
@@ -5500,7 +5499,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" ref="A98:A106" si="6">EDATE(A97,1)</f>
         <v>38047</v>
@@ -5521,7 +5520,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -5542,7 +5541,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -5567,7 +5566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -5594,7 +5593,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -5615,7 +5614,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -5636,7 +5635,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -5657,7 +5656,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -5678,7 +5677,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f t="shared" si="6"/>
         <v>38292</v>
@@ -5699,7 +5698,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <f>EDATE(A106,1)</f>
         <v>38322</v>
@@ -5726,7 +5725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>67</v>
@@ -5746,7 +5745,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="52" t="s">
         <v>84</v>
       </c>
@@ -5764,7 +5763,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>38353</v>
       </c>
@@ -5784,7 +5783,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <f>EDATE(A110,1)</f>
         <v>38384</v>
@@ -5805,7 +5804,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <f t="shared" ref="A112:A122" si="7">EDATE(A111,1)</f>
         <v>38412</v>
@@ -5826,7 +5825,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -5853,7 +5852,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>85</v>
@@ -5870,7 +5869,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f>EDATE(A113,1)</f>
         <v>38473</v>
@@ -5891,7 +5890,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -5918,7 +5917,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -5939,7 +5938,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -5960,7 +5959,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -5981,7 +5980,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -6002,7 +6001,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -6029,7 +6028,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <f t="shared" si="7"/>
         <v>38687</v>
@@ -6056,7 +6055,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="20" t="s">
         <v>50</v>
@@ -6078,7 +6077,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>67</v>
@@ -6100,7 +6099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>71</v>
@@ -6120,7 +6119,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="52" t="s">
         <v>88</v>
       </c>
@@ -6138,7 +6137,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>38718</v>
       </c>
@@ -6162,7 +6161,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <f>EDATE(A127,1)</f>
         <v>38749</v>
@@ -6189,7 +6188,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <f t="shared" ref="A129:A139" si="8">EDATE(A128,1)</f>
         <v>38777</v>
@@ -6210,7 +6209,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <f t="shared" si="8"/>
         <v>38808</v>
@@ -6231,7 +6230,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f t="shared" si="8"/>
         <v>38838</v>
@@ -6252,7 +6251,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -6279,7 +6278,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6306,7 +6305,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <f t="shared" si="8"/>
         <v>38930</v>
@@ -6327,7 +6326,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -6354,7 +6353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -6381,7 +6380,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6401,7 +6400,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f>EDATE(A136,1)</f>
         <v>39022</v>
@@ -6422,7 +6421,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -6443,7 +6442,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
         <v>94</v>
       </c>
@@ -6461,7 +6460,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>39083</v>
       </c>
@@ -6481,7 +6480,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39114</v>
@@ -6502,7 +6501,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A151" si="9">EDATE(A142,1)</f>
         <v>39142</v>
@@ -6523,7 +6522,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>39173</v>
@@ -6550,7 +6549,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>39203</v>
@@ -6571,7 +6570,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -6592,7 +6591,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>39264</v>
@@ -6613,7 +6612,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -6634,7 +6633,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -6661,7 +6660,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -6682,7 +6681,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -6709,7 +6708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>95</v>
@@ -6726,7 +6725,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>71</v>
@@ -6745,7 +6744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>39417</v>
@@ -6766,7 +6765,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="56" t="s">
         <v>99</v>
       </c>
@@ -6784,7 +6783,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>39448</v>
       </c>
@@ -6804,7 +6803,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f>EDATE(A156,1)</f>
         <v>39479</v>
@@ -6831,7 +6830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" ref="A158:A166" si="10">EDATE(A157,1)</f>
         <v>39508</v>
@@ -6852,7 +6851,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <f t="shared" si="10"/>
         <v>39539</v>
@@ -6873,7 +6872,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -6894,7 +6893,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f t="shared" si="10"/>
         <v>39600</v>
@@ -6915,7 +6914,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <f t="shared" si="10"/>
         <v>39630</v>
@@ -6936,7 +6935,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <f t="shared" si="10"/>
         <v>39661</v>
@@ -6957,7 +6956,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <f t="shared" si="10"/>
         <v>39692</v>
@@ -6978,7 +6977,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -6999,7 +6998,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -7024,7 +7023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>63</v>
@@ -7041,7 +7040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>103</v>
@@ -7060,7 +7059,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <f>EDATE(A166,1)</f>
         <v>39783</v>
@@ -7081,7 +7080,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="52" t="s">
         <v>104</v>
       </c>
@@ -7099,7 +7098,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>39814</v>
       </c>
@@ -7125,7 +7124,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>39845</v>
@@ -7152,7 +7151,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" ref="A173:A180" si="11">EDATE(A172,1)</f>
         <v>39873</v>
@@ -7173,7 +7172,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>39904</v>
@@ -7200,7 +7199,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>39934</v>
@@ -7221,7 +7220,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>39965</v>
@@ -7248,7 +7247,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -7269,7 +7268,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -7290,7 +7289,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -7311,7 +7310,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>40087</v>
@@ -7338,7 +7337,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>95</v>
@@ -7355,7 +7354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>92</v>
@@ -7374,7 +7373,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>40118</v>
@@ -7401,7 +7400,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>40148</v>
@@ -7422,7 +7421,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="52" t="s">
         <v>108</v>
       </c>
@@ -7440,7 +7439,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>40179</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <f>EDATE(A186,1)</f>
         <v>40210</v>
@@ -7491,7 +7490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <f t="shared" ref="A188:A197" si="12">EDATE(A187,1)</f>
         <v>40238</v>
@@ -7512,7 +7511,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -7533,7 +7532,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f t="shared" si="12"/>
         <v>40299</v>
@@ -7560,7 +7559,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <f t="shared" si="12"/>
         <v>40330</v>
@@ -7581,7 +7580,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -7602,7 +7601,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -7629,7 +7628,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>50</v>
@@ -7648,7 +7647,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <f>EDATE(A193,1)</f>
         <v>40422</v>
@@ -7669,7 +7668,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -7690,7 +7689,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f t="shared" si="12"/>
         <v>40483</v>
@@ -7717,7 +7716,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39"/>
       <c r="B198" s="20" t="s">
         <v>50</v>
@@ -7739,7 +7738,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <f>EDATE(A197,1)</f>
         <v>40513</v>
@@ -7764,7 +7763,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="52" t="s">
         <v>111</v>
       </c>
@@ -7782,7 +7781,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>40544</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>51</v>
@@ -7827,7 +7826,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <f>EDATE(A201,1)</f>
         <v>40575</v>
@@ -7852,7 +7851,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <f t="shared" ref="A204:A212" si="13">EDATE(A203,1)</f>
         <v>40603</v>
@@ -7879,7 +7878,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <f t="shared" si="13"/>
         <v>40634</v>
@@ -7900,7 +7899,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -7925,7 +7924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f t="shared" si="13"/>
         <v>40695</v>
@@ -7946,7 +7945,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -7967,7 +7966,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -7988,7 +7987,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -8009,7 +8008,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f t="shared" si="13"/>
         <v>40817</v>
@@ -8036,7 +8035,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -8063,7 +8062,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="15" t="s">
         <v>50</v>
@@ -8082,7 +8081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>40878</v>
@@ -8109,7 +8108,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="52" t="s">
         <v>119</v>
       </c>
@@ -8127,7 +8126,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>40909</v>
       </c>
@@ -8147,7 +8146,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <f>EDATE(A216,1)</f>
         <v>40940</v>
@@ -8174,7 +8173,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39"/>
       <c r="B218" s="20" t="s">
         <v>63</v>
@@ -8194,7 +8193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <f>EDATE(A217,1)</f>
         <v>40969</v>
@@ -8215,7 +8214,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f t="shared" ref="A220:A229" si="14">EDATE(A219,1)</f>
         <v>41000</v>
@@ -8236,7 +8235,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -8257,7 +8256,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -8278,7 +8277,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -8305,7 +8304,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -8327,7 +8326,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f>EDATE(A223,1)</f>
         <v>41122</v>
@@ -8348,7 +8347,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -8369,7 +8368,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <f>EDATE(A226,1)</f>
         <v>41183</v>
@@ -8396,7 +8395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -8417,7 +8416,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -8442,7 +8441,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="52" t="s">
         <v>120</v>
       </c>
@@ -8460,7 +8459,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <v>41275</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>51</v>
@@ -8508,7 +8507,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <f>EDATE(A231,1)</f>
         <v>41306</v>
@@ -8535,7 +8534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>63</v>
@@ -8555,7 +8554,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>41334</v>
@@ -8576,7 +8575,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>41365</v>
@@ -8597,7 +8596,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <f t="shared" si="15"/>
         <v>41395</v>
@@ -8624,7 +8623,7 @@
         <v>46874</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <f t="shared" si="15"/>
         <v>41426</v>
@@ -8645,7 +8644,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <f t="shared" si="15"/>
         <v>41456</v>
@@ -8666,7 +8665,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -8687,7 +8686,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -8712,7 +8711,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -8735,7 +8734,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <f t="shared" si="15"/>
         <v>41579</v>
@@ -8762,7 +8761,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -8789,7 +8788,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>71</v>
@@ -8811,7 +8810,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
         <v>131</v>
       </c>
@@ -8829,7 +8828,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>41640</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -8874,7 +8873,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>63</v>
@@ -8891,7 +8890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <f>EDATE(A247,1)</f>
         <v>41671</v>
@@ -8912,7 +8911,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <f t="shared" ref="A251:A262" si="16">EDATE(A250,1)</f>
         <v>41699</v>
@@ -8939,7 +8938,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -8960,7 +8959,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -8987,7 +8986,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>133</v>
@@ -9006,7 +9005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39"/>
       <c r="B255" s="20" t="s">
         <v>51</v>
@@ -9025,7 +9024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>85</v>
@@ -9042,7 +9041,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <f>EDATE(A253,1)</f>
         <v>41791</v>
@@ -9063,7 +9062,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -9090,7 +9089,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>50</v>
@@ -9112,7 +9111,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <f>EDATE(A258,1)</f>
         <v>41852</v>
@@ -9133,7 +9132,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -9160,7 +9159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -9187,7 +9186,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>71</v>
@@ -9209,7 +9208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <f>EDATE(A262,1)</f>
         <v>41944</v>
@@ -9236,7 +9235,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39">
         <f>EDATE(A264,1)</f>
         <v>41974</v>
@@ -9257,7 +9256,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="52" t="s">
         <v>141</v>
       </c>
@@ -9275,7 +9274,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39">
         <v>42005</v>
       </c>
@@ -9295,7 +9294,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <f>EDATE(A267,1)</f>
         <v>42036</v>
@@ -9320,7 +9319,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39">
         <f t="shared" ref="A269:A278" si="17">EDATE(A268,1)</f>
         <v>42064</v>
@@ -9345,7 +9344,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <f t="shared" si="17"/>
         <v>42095</v>
@@ -9372,7 +9371,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39">
         <f t="shared" si="17"/>
         <v>42125</v>
@@ -9393,7 +9392,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -9414,7 +9413,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39">
         <f t="shared" si="17"/>
         <v>42186</v>
@@ -9435,7 +9434,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -9460,7 +9459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -9487,7 +9486,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -9509,7 +9508,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <f>EDATE(A275,1)</f>
         <v>42278</v>
@@ -9536,7 +9535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -9563,7 +9562,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>145</v>
@@ -9582,7 +9581,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>50</v>
@@ -9601,7 +9600,7 @@
         <v>46692</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>50</v>
@@ -9620,7 +9619,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>145</v>
@@ -9639,7 +9638,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <f>EDATE(A278,1)</f>
         <v>42339</v>
@@ -9660,7 +9659,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="52" t="s">
         <v>146</v>
       </c>
@@ -9678,7 +9677,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>42370</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <f>EDATE(A285,1)</f>
         <v>42401</v>
@@ -9729,7 +9728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>145</v>
@@ -9749,7 +9748,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <f>EDATE(A286,1)</f>
         <v>42430</v>
@@ -9770,7 +9769,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <f t="shared" ref="A289:A299" si="18">EDATE(A288,1)</f>
         <v>42461</v>
@@ -9791,7 +9790,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -9818,7 +9817,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <f t="shared" si="18"/>
         <v>42522</v>
@@ -9839,7 +9838,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -9864,7 +9863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -9885,7 +9884,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -9912,7 +9911,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>145</v>
@@ -9931,7 +9930,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -9950,7 +9949,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <f>EDATE(A294,1)</f>
         <v>42644</v>
@@ -9971,7 +9970,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <f>EDATE(A297,1)</f>
         <v>42675</v>
@@ -9992,7 +9991,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -10017,7 +10016,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="52" t="s">
         <v>148</v>
       </c>
@@ -10035,7 +10034,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>42736</v>
       </c>
@@ -10061,7 +10060,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <f>EDATE(A301,1)</f>
         <v>42767</v>
@@ -10088,7 +10087,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39"/>
       <c r="B303" s="20" t="s">
         <v>63</v>
@@ -10108,7 +10107,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <f>EDATE(A302,1)</f>
         <v>42795</v>
@@ -10129,7 +10128,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <f t="shared" ref="A305:A312" si="19">EDATE(A304,1)</f>
         <v>42826</v>
@@ -10156,7 +10155,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -10177,7 +10176,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -10204,7 +10203,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -10225,7 +10224,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -10252,7 +10251,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -10279,7 +10278,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -10306,7 +10305,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -10333,7 +10332,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <f>EDATE(A312,1)</f>
         <v>43070</v>
@@ -10358,7 +10357,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="56" t="s">
         <v>152</v>
       </c>
@@ -10376,7 +10375,7 @@
       <c r="J314" s="12"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <v>43101</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>50</v>
@@ -10424,7 +10423,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <f>EDATE(A315,1)</f>
         <v>43132</v>
@@ -10445,7 +10444,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <f t="shared" ref="A318:A334" si="20">EDATE(A317,1)</f>
         <v>43160</v>
@@ -10470,7 +10469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>50</v>
@@ -10492,7 +10491,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>43191</v>
@@ -10519,7 +10518,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -10541,7 +10540,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>43221</v>
@@ -10568,7 +10567,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39"/>
       <c r="B323" s="20" t="s">
         <v>63</v>
@@ -10585,7 +10584,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>145</v>
@@ -10604,7 +10603,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>50</v>
@@ -10623,7 +10622,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -10642,7 +10641,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <f>EDATE(A322,1)</f>
         <v>43252</v>
@@ -10663,7 +10662,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -10690,7 +10689,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -10711,7 +10710,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -10732,7 +10731,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -10759,7 +10758,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>145</v>
@@ -10781,7 +10780,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <f>EDATE(A331,1)</f>
         <v>43405</v>
@@ -10808,7 +10807,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <f t="shared" si="20"/>
         <v>43435</v>
@@ -10829,7 +10828,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="52" t="s">
         <v>155</v>
       </c>
@@ -10847,7 +10846,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <v>43466</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10898,7 +10897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <f t="shared" ref="A338:A350" si="21">EDATE(A337,1)</f>
         <v>43525</v>
@@ -10919,7 +10918,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -10940,7 +10939,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -10967,7 +10966,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>69</v>
@@ -10989,7 +10988,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <f>EDATE(A340,1)</f>
         <v>43617</v>
@@ -11016,7 +11015,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -11043,7 +11042,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -11065,7 +11064,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <f>EDATE(A343,1)</f>
         <v>43678</v>
@@ -11086,7 +11085,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -11113,7 +11112,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="15" t="s">
         <v>53</v>
@@ -11135,7 +11134,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <f>EDATE(A346,1)</f>
         <v>43739</v>
@@ -11156,7 +11155,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <f>EDATE(A348,1)</f>
         <v>43770</v>
@@ -11183,7 +11182,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -11204,7 +11203,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="52" t="s">
         <v>160</v>
       </c>
@@ -11222,7 +11221,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43831</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>95</v>
@@ -11266,7 +11265,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <f>EDATE(A352,1)</f>
         <v>43862</v>
@@ -11287,7 +11286,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <f t="shared" ref="A355:A366" si="22">EDATE(A354,1)</f>
         <v>43891</v>
@@ -11308,7 +11307,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -11329,7 +11328,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -11350,7 +11349,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -11377,7 +11376,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -11398,7 +11397,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -11419,7 +11418,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -11446,7 +11445,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="15" t="s">
         <v>145</v>
@@ -11465,7 +11464,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39"/>
       <c r="B363" s="15" t="s">
         <v>145</v>
@@ -11484,7 +11483,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <f>EDATE(A361,1)</f>
         <v>44105</v>
@@ -11505,7 +11504,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -11526,7 +11525,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -11553,7 +11552,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="52" t="s">
         <v>166</v>
       </c>
@@ -11571,7 +11570,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>44197</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <f>EDATE(A368,1)</f>
         <v>44228</v>
@@ -11616,7 +11615,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <f t="shared" ref="A370:A379" si="23">EDATE(A369,1)</f>
         <v>44256</v>
@@ -11637,7 +11636,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -11658,7 +11657,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -11679,7 +11678,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -11700,7 +11699,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -11721,7 +11720,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -11742,7 +11741,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -11763,7 +11762,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -11784,7 +11783,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -11805,7 +11804,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <f t="shared" si="23"/>
         <v>44531</v>
@@ -11832,7 +11831,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39"/>
       <c r="B380" s="20" t="s">
         <v>164</v>
@@ -11854,7 +11853,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="52" t="s">
         <v>169</v>
       </c>
@@ -11872,7 +11871,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44562</v>
       </c>
@@ -11892,7 +11891,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <f>EDATE(A382,1)</f>
         <v>44593</v>
@@ -11913,7 +11912,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <f t="shared" ref="A384:A392" si="24">EDATE(A383,1)</f>
         <v>44621</v>
@@ -11940,7 +11939,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <f t="shared" si="24"/>
         <v>44652</v>
@@ -11961,7 +11960,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <f t="shared" si="24"/>
         <v>44682</v>
@@ -11986,7 +11985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12008,7 +12007,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <f>EDATE(A386,1)</f>
         <v>44713</v>
@@ -12029,7 +12028,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <f t="shared" si="24"/>
         <v>44743</v>
@@ -12056,7 +12055,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -12075,7 +12074,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <f>EDATE(A389,1)</f>
         <v>44774</v>
@@ -12096,7 +12095,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -12123,7 +12122,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44835</v>
       </c>
@@ -12143,7 +12142,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>44866</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44896</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="52" t="s">
         <v>172</v>
       </c>
@@ -12213,7 +12212,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>44927</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44958</v>
       </c>
@@ -12263,7 +12262,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44986</v>
       </c>
@@ -12285,33 +12284,37 @@
       <c r="H399" s="38"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="71">
+      <c r="K399" s="59">
         <v>45016</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>45017</v>
       </c>
       <c r="B400" s="20"/>
-      <c r="C400" s="13"/>
+      <c r="C400" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D400" s="38"/>
       <c r="E400" s="9"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G400" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H400" s="38"/>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>45047</v>
       </c>
-      <c r="B401" s="20"/>
+      <c r="B401" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="C401" s="13"/>
       <c r="D401" s="38"/>
       <c r="E401" s="9"/>
@@ -12323,9 +12326,11 @@
       <c r="H401" s="38"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="15"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K401" s="58">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>45078</v>
       </c>
@@ -12343,7 +12348,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>45108</v>
       </c>
@@ -12361,7 +12366,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12377,7 +12382,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12408,10 +12413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12434,7 +12439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12442,34 +12447,34 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="J1" s="70" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -12498,7 +12503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.04</v>
       </c>
@@ -12522,17 +12527,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -12546,14 +12551,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -12580,7 +12585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12606,7 +12611,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12632,7 +12637,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12658,7 +12663,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12684,7 +12689,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12710,7 +12715,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12736,7 +12741,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12762,7 +12767,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12802,7 +12807,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12822,7 +12827,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -12843,7 +12848,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -12864,7 +12869,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -12885,7 +12890,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -12906,7 +12911,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -12927,7 +12932,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -12948,7 +12953,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -12969,7 +12974,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -12990,7 +12995,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13011,7 +13016,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13032,7 +13037,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13053,7 +13058,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13074,7 +13079,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13095,7 +13100,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13116,7 +13121,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13137,7 +13142,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13179,7 +13184,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13200,7 +13205,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13221,7 +13226,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13251,7 +13256,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13260,7 +13265,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13269,7 +13274,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13278,7 +13283,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13287,7 +13292,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13296,7 +13301,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13305,7 +13310,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13314,7 +13319,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13323,7 +13328,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13332,7 +13337,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13341,7 +13346,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13350,7 +13355,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13359,7 +13364,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13368,7 +13373,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13377,7 +13382,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13386,7 +13391,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13395,7 +13400,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13404,7 +13409,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13413,7 +13418,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13422,7 +13427,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13431,7 +13436,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13440,7 +13445,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13449,7 +13454,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13458,7 +13463,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13467,7 +13472,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13476,7 +13481,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13485,7 +13490,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13494,7 +13499,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13503,7 +13508,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
+++ b/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468827D-40D2-4495-8EE8-DB9DFE81085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="180">
   <si>
     <t>PERIOD</t>
   </si>
@@ -571,12 +572,15 @@
   </si>
   <si>
     <t>COOP</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1466,7 +1470,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1513,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1577,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1637,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1703,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1766,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1864,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1923,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +1988,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2031,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2106,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2292,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2358,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2416,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2482,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2538,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2613,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2656,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,7 +2722,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2778,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2876,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2939,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +2988,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3001,26 +3005,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K405"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K405" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3032,13 +3036,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3047,14 +3051,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3358,7 +3362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3368,7 +3372,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3376,34 +3380,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K405"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A388" activePane="bottomLeft"/>
+      <pane ySplit="2820" topLeftCell="A344" activePane="bottomLeft"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="B402" sqref="B402"/>
+      <selection pane="bottomLeft" activeCell="I395" sqref="I395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3428,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3444,7 +3448,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3474,7 +3478,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3487,7 +3491,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -3504,7 +3508,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3563,7 +3567,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3587,7 +3591,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -3607,7 +3611,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
@@ -3625,7 +3629,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>50</v>
@@ -3670,7 +3674,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -3691,7 +3695,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <f t="shared" ref="A16:A20" si="0">EDATE(A15,1)</f>
         <v>36008</v>
@@ -3718,7 +3722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -3745,7 +3749,7 @@
         <v>47362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -3772,7 +3776,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -3799,7 +3803,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3826,7 +3830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="52" t="s">
         <v>59</v>
       </c>
@@ -3844,7 +3848,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>36161</v>
       </c>
@@ -3870,7 +3874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3889,7 +3893,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>50</v>
@@ -3908,7 +3912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <f>EDATE(A22,1)</f>
         <v>36192</v>
@@ -3933,7 +3937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <f t="shared" ref="A26:A36" si="1">EDATE(A25,1)</f>
         <v>36220</v>
@@ -3954,7 +3958,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -3981,7 +3985,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -4000,7 +4004,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>50</v>
@@ -4019,7 +4023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36281</v>
@@ -4040,7 +4044,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4061,7 +4065,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4088,7 +4092,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <f>EDATE(A32,1)</f>
         <v>36373</v>
@@ -4115,7 +4119,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4136,7 +4140,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4157,7 +4161,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4184,7 +4188,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <f>EDATE(A36,1)</f>
         <v>36495</v>
@@ -4209,7 +4213,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="52" t="s">
         <v>68</v>
       </c>
@@ -4229,7 +4233,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>36526</v>
       </c>
@@ -4249,7 +4253,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <f>EDATE(A39,1)</f>
         <v>36557</v>
@@ -4270,7 +4274,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <f t="shared" ref="A41:A50" si="2">EDATE(A40,1)</f>
         <v>36586</v>
@@ -4291,7 +4295,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -4312,7 +4316,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -4333,7 +4337,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -4354,7 +4358,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -4375,7 +4379,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -4396,7 +4400,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -4417,7 +4421,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <f>EDATE(A47,1)</f>
         <v>36800</v>
@@ -4438,7 +4442,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -4465,7 +4469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -4490,7 +4494,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="52" t="s">
         <v>72</v>
       </c>
@@ -4508,7 +4512,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <v>36892</v>
       </c>
@@ -4534,7 +4538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
         <f>EDATE(A52,1)</f>
         <v>36923</v>
@@ -4555,7 +4559,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <f t="shared" ref="A54:A63" si="3">EDATE(A53,1)</f>
         <v>36951</v>
@@ -4576,7 +4580,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -4597,7 +4601,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -4624,7 +4628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -4645,7 +4649,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -4666,7 +4670,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -4687,7 +4691,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -4708,7 +4712,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <f>EDATE(A60,1)</f>
         <v>37165</v>
@@ -4729,7 +4733,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -4756,7 +4760,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -4777,7 +4781,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="52" t="s">
         <v>76</v>
       </c>
@@ -4795,7 +4799,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39">
         <v>37257</v>
       </c>
@@ -4815,7 +4819,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <f>EDATE(A65,1)</f>
         <v>37288</v>
@@ -4836,7 +4840,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39">
         <f t="shared" ref="A67:A81" si="4">EDATE(A66,1)</f>
         <v>37316</v>
@@ -4857,7 +4861,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -4878,7 +4882,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -4905,7 +4909,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -4924,7 +4928,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>63</v>
@@ -4941,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -4960,7 +4964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4979,7 +4983,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <f>EDATE(A69,1)</f>
         <v>37408</v>
@@ -5006,7 +5010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
@@ -5025,7 +5029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39">
         <f>EDATE(A74,1)</f>
         <v>37438</v>
@@ -5046,7 +5050,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5073,7 +5077,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5094,7 +5098,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39">
         <f>EDATE(A78,1)</f>
         <v>37530</v>
@@ -5115,7 +5119,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -5136,7 +5140,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5161,7 +5165,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="52" t="s">
         <v>81</v>
       </c>
@@ -5179,7 +5183,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <v>37622</v>
       </c>
@@ -5199,7 +5203,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5220,7 +5224,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39">
         <f t="shared" ref="A85:A94" si="5">EDATE(A84,1)</f>
         <v>37681</v>
@@ -5241,7 +5245,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -5262,7 +5266,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -5283,7 +5287,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -5304,7 +5308,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -5325,7 +5329,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5346,7 +5350,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5367,7 +5371,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -5388,7 +5392,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5415,7 +5419,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -5440,7 +5444,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="52" t="s">
         <v>82</v>
       </c>
@@ -5458,7 +5462,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <v>37987</v>
       </c>
@@ -5478,7 +5482,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <f>EDATE(A96,1)</f>
         <v>38018</v>
@@ -5499,7 +5503,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <f t="shared" ref="A98:A106" si="6">EDATE(A97,1)</f>
         <v>38047</v>
@@ -5520,7 +5524,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -5541,7 +5545,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -5566,7 +5570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -5593,7 +5597,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -5614,7 +5618,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -5635,7 +5639,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -5656,7 +5660,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -5677,7 +5681,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <f t="shared" si="6"/>
         <v>38292</v>
@@ -5698,7 +5702,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39">
         <f>EDATE(A106,1)</f>
         <v>38322</v>
@@ -5725,7 +5729,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>67</v>
@@ -5745,7 +5749,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="52" t="s">
         <v>84</v>
       </c>
@@ -5763,7 +5767,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39">
         <v>38353</v>
       </c>
@@ -5783,7 +5787,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39">
         <f>EDATE(A110,1)</f>
         <v>38384</v>
@@ -5804,7 +5808,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <f t="shared" ref="A112:A122" si="7">EDATE(A111,1)</f>
         <v>38412</v>
@@ -5825,7 +5829,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -5852,7 +5856,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>85</v>
@@ -5869,7 +5873,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39">
         <f>EDATE(A113,1)</f>
         <v>38473</v>
@@ -5890,7 +5894,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -5917,7 +5921,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -5938,7 +5942,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -5959,7 +5963,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -5980,7 +5984,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -6001,7 +6005,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -6028,7 +6032,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <f t="shared" si="7"/>
         <v>38687</v>
@@ -6055,7 +6059,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="20" t="s">
         <v>50</v>
@@ -6077,7 +6081,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>67</v>
@@ -6099,7 +6103,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>71</v>
@@ -6119,7 +6123,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="52" t="s">
         <v>88</v>
       </c>
@@ -6137,7 +6141,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39">
         <v>38718</v>
       </c>
@@ -6161,7 +6165,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39">
         <f>EDATE(A127,1)</f>
         <v>38749</v>
@@ -6188,7 +6192,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39">
         <f t="shared" ref="A129:A139" si="8">EDATE(A128,1)</f>
         <v>38777</v>
@@ -6209,7 +6213,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39">
         <f t="shared" si="8"/>
         <v>38808</v>
@@ -6230,7 +6234,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <f t="shared" si="8"/>
         <v>38838</v>
@@ -6251,7 +6255,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -6278,7 +6282,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6305,7 +6309,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39">
         <f t="shared" si="8"/>
         <v>38930</v>
@@ -6326,7 +6330,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -6353,7 +6357,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -6380,7 +6384,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6400,7 +6404,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39">
         <f>EDATE(A136,1)</f>
         <v>39022</v>
@@ -6421,7 +6425,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -6442,7 +6446,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="52" t="s">
         <v>94</v>
       </c>
@@ -6460,7 +6464,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39">
         <v>39083</v>
       </c>
@@ -6480,7 +6484,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39114</v>
@@ -6501,7 +6505,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A151" si="9">EDATE(A142,1)</f>
         <v>39142</v>
@@ -6522,7 +6526,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>39173</v>
@@ -6549,7 +6553,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>39203</v>
@@ -6570,7 +6574,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -6591,7 +6595,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>39264</v>
@@ -6612,7 +6616,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -6633,7 +6637,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -6660,7 +6664,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -6681,7 +6685,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -6708,7 +6712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>95</v>
@@ -6725,7 +6729,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>71</v>
@@ -6744,7 +6748,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>39417</v>
@@ -6765,7 +6769,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="56" t="s">
         <v>99</v>
       </c>
@@ -6783,7 +6787,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="39">
         <v>39448</v>
       </c>
@@ -6803,7 +6807,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="39">
         <f>EDATE(A156,1)</f>
         <v>39479</v>
@@ -6830,7 +6834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="39">
         <f t="shared" ref="A158:A166" si="10">EDATE(A157,1)</f>
         <v>39508</v>
@@ -6851,7 +6855,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="39">
         <f t="shared" si="10"/>
         <v>39539</v>
@@ -6872,7 +6876,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="39">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -6893,7 +6897,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="39">
         <f t="shared" si="10"/>
         <v>39600</v>
@@ -6914,7 +6918,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="39">
         <f t="shared" si="10"/>
         <v>39630</v>
@@ -6935,7 +6939,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="39">
         <f t="shared" si="10"/>
         <v>39661</v>
@@ -6956,7 +6960,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="39">
         <f t="shared" si="10"/>
         <v>39692</v>
@@ -6977,7 +6981,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="39">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -6998,7 +7002,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="39">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -7023,7 +7027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>63</v>
@@ -7040,7 +7044,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>103</v>
@@ -7059,7 +7063,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="39">
         <f>EDATE(A166,1)</f>
         <v>39783</v>
@@ -7080,7 +7084,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="52" t="s">
         <v>104</v>
       </c>
@@ -7098,7 +7102,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="39">
         <v>39814</v>
       </c>
@@ -7124,7 +7128,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>39845</v>
@@ -7151,7 +7155,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" ref="A173:A180" si="11">EDATE(A172,1)</f>
         <v>39873</v>
@@ -7172,7 +7176,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>39904</v>
@@ -7199,7 +7203,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>39934</v>
@@ -7220,7 +7224,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>39965</v>
@@ -7247,7 +7251,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -7268,7 +7272,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -7289,7 +7293,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -7310,7 +7314,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>40087</v>
@@ -7337,7 +7341,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>95</v>
@@ -7354,7 +7358,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>92</v>
@@ -7373,7 +7377,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>40118</v>
@@ -7400,7 +7404,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>40148</v>
@@ -7421,7 +7425,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="52" t="s">
         <v>108</v>
       </c>
@@ -7439,7 +7443,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="39">
         <v>40179</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="39">
         <f>EDATE(A186,1)</f>
         <v>40210</v>
@@ -7490,7 +7494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="39">
         <f t="shared" ref="A188:A197" si="12">EDATE(A187,1)</f>
         <v>40238</v>
@@ -7511,7 +7515,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -7532,7 +7536,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="39">
         <f t="shared" si="12"/>
         <v>40299</v>
@@ -7559,7 +7563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="39">
         <f t="shared" si="12"/>
         <v>40330</v>
@@ -7580,7 +7584,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="39">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -7601,7 +7605,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="39">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -7628,7 +7632,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>50</v>
@@ -7647,7 +7651,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="39">
         <f>EDATE(A193,1)</f>
         <v>40422</v>
@@ -7668,7 +7672,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -7689,7 +7693,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="39">
         <f t="shared" si="12"/>
         <v>40483</v>
@@ -7716,7 +7720,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="39"/>
       <c r="B198" s="20" t="s">
         <v>50</v>
@@ -7738,7 +7742,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="39">
         <f>EDATE(A197,1)</f>
         <v>40513</v>
@@ -7763,7 +7767,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="52" t="s">
         <v>111</v>
       </c>
@@ -7781,7 +7785,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="39">
         <v>40544</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>51</v>
@@ -7826,7 +7830,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="39">
         <f>EDATE(A201,1)</f>
         <v>40575</v>
@@ -7851,7 +7855,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="39">
         <f t="shared" ref="A204:A212" si="13">EDATE(A203,1)</f>
         <v>40603</v>
@@ -7878,7 +7882,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="39">
         <f t="shared" si="13"/>
         <v>40634</v>
@@ -7899,7 +7903,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="39">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -7924,7 +7928,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="39">
         <f t="shared" si="13"/>
         <v>40695</v>
@@ -7945,7 +7949,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="39">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -7966,7 +7970,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="39">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -7987,7 +7991,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="39">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -8008,7 +8012,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="39">
         <f t="shared" si="13"/>
         <v>40817</v>
@@ -8035,7 +8039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="39">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -8062,7 +8066,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="39"/>
       <c r="B213" s="15" t="s">
         <v>50</v>
@@ -8081,7 +8085,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>40878</v>
@@ -8108,7 +8112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="52" t="s">
         <v>119</v>
       </c>
@@ -8126,7 +8130,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="39">
         <v>40909</v>
       </c>
@@ -8146,7 +8150,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="39">
         <f>EDATE(A216,1)</f>
         <v>40940</v>
@@ -8173,7 +8177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="39"/>
       <c r="B218" s="20" t="s">
         <v>63</v>
@@ -8193,7 +8197,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="39">
         <f>EDATE(A217,1)</f>
         <v>40969</v>
@@ -8214,7 +8218,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="39">
         <f t="shared" ref="A220:A229" si="14">EDATE(A219,1)</f>
         <v>41000</v>
@@ -8235,7 +8239,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="39">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -8256,7 +8260,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="39">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -8277,7 +8281,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="39">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -8304,7 +8308,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -8326,7 +8330,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="39">
         <f>EDATE(A223,1)</f>
         <v>41122</v>
@@ -8347,7 +8351,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="39">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -8368,7 +8372,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="39">
         <f>EDATE(A226,1)</f>
         <v>41183</v>
@@ -8395,7 +8399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="39">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -8416,7 +8420,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="39">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -8441,7 +8445,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="52" t="s">
         <v>120</v>
       </c>
@@ -8459,7 +8463,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="39">
         <v>41275</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>51</v>
@@ -8507,7 +8511,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="39">
         <f>EDATE(A231,1)</f>
         <v>41306</v>
@@ -8534,7 +8538,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>63</v>
@@ -8554,7 +8558,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>41334</v>
@@ -8575,7 +8579,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="39">
         <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>41365</v>
@@ -8596,7 +8600,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="39">
         <f t="shared" si="15"/>
         <v>41395</v>
@@ -8623,7 +8627,7 @@
         <v>46874</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="39">
         <f t="shared" si="15"/>
         <v>41426</v>
@@ -8644,7 +8648,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="39">
         <f t="shared" si="15"/>
         <v>41456</v>
@@ -8665,7 +8669,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -8686,7 +8690,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -8711,7 +8715,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="39">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -8734,7 +8738,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="39">
         <f t="shared" si="15"/>
         <v>41579</v>
@@ -8761,7 +8765,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="39">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -8788,7 +8792,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>71</v>
@@ -8810,7 +8814,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="52" t="s">
         <v>131</v>
       </c>
@@ -8828,7 +8832,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="39">
         <v>41640</v>
       </c>
@@ -8854,7 +8858,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -8873,7 +8877,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>63</v>
@@ -8890,7 +8894,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="39">
         <f>EDATE(A247,1)</f>
         <v>41671</v>
@@ -8911,7 +8915,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="39">
         <f t="shared" ref="A251:A262" si="16">EDATE(A250,1)</f>
         <v>41699</v>
@@ -8938,7 +8942,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="39">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -8959,7 +8963,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -8986,7 +8990,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>133</v>
@@ -9005,7 +9009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="39"/>
       <c r="B255" s="20" t="s">
         <v>51</v>
@@ -9024,7 +9028,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>85</v>
@@ -9041,7 +9045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="39">
         <f>EDATE(A253,1)</f>
         <v>41791</v>
@@ -9062,7 +9066,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="39">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -9089,7 +9093,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>50</v>
@@ -9111,7 +9115,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="39">
         <f>EDATE(A258,1)</f>
         <v>41852</v>
@@ -9132,7 +9136,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="39">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -9159,7 +9163,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -9186,7 +9190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>71</v>
@@ -9208,7 +9212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="39">
         <f>EDATE(A262,1)</f>
         <v>41944</v>
@@ -9235,7 +9239,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="39">
         <f>EDATE(A264,1)</f>
         <v>41974</v>
@@ -9256,7 +9260,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="52" t="s">
         <v>141</v>
       </c>
@@ -9274,7 +9278,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39">
         <v>42005</v>
       </c>
@@ -9294,7 +9298,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="39">
         <f>EDATE(A267,1)</f>
         <v>42036</v>
@@ -9319,7 +9323,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="39">
         <f t="shared" ref="A269:A278" si="17">EDATE(A268,1)</f>
         <v>42064</v>
@@ -9344,7 +9348,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="39">
         <f t="shared" si="17"/>
         <v>42095</v>
@@ -9371,7 +9375,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="39">
         <f t="shared" si="17"/>
         <v>42125</v>
@@ -9392,7 +9396,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="39">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -9413,7 +9417,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="39">
         <f t="shared" si="17"/>
         <v>42186</v>
@@ -9434,7 +9438,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -9459,7 +9463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -9486,7 +9490,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -9508,7 +9512,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="39">
         <f>EDATE(A275,1)</f>
         <v>42278</v>
@@ -9535,7 +9539,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="39">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -9562,7 +9566,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>145</v>
@@ -9581,7 +9585,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>50</v>
@@ -9600,7 +9604,7 @@
         <v>46692</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>50</v>
@@ -9619,7 +9623,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>145</v>
@@ -9638,7 +9642,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="39">
         <f>EDATE(A278,1)</f>
         <v>42339</v>
@@ -9659,7 +9663,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="52" t="s">
         <v>146</v>
       </c>
@@ -9677,7 +9681,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="39">
         <v>42370</v>
       </c>
@@ -9703,7 +9707,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="39">
         <f>EDATE(A285,1)</f>
         <v>42401</v>
@@ -9728,7 +9732,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>145</v>
@@ -9748,7 +9752,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="39">
         <f>EDATE(A286,1)</f>
         <v>42430</v>
@@ -9769,7 +9773,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="39">
         <f t="shared" ref="A289:A299" si="18">EDATE(A288,1)</f>
         <v>42461</v>
@@ -9790,7 +9794,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -9817,7 +9821,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="39">
         <f t="shared" si="18"/>
         <v>42522</v>
@@ -9838,7 +9842,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -9863,7 +9867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -9884,7 +9888,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -9911,7 +9915,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>145</v>
@@ -9930,7 +9934,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="39"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -9949,7 +9953,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="39">
         <f>EDATE(A294,1)</f>
         <v>42644</v>
@@ -9970,7 +9974,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="39">
         <f>EDATE(A297,1)</f>
         <v>42675</v>
@@ -9991,7 +9995,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -10016,7 +10020,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="52" t="s">
         <v>148</v>
       </c>
@@ -10034,7 +10038,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="39">
         <v>42736</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="39">
         <f>EDATE(A301,1)</f>
         <v>42767</v>
@@ -10087,7 +10091,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="39"/>
       <c r="B303" s="20" t="s">
         <v>63</v>
@@ -10107,7 +10111,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="39">
         <f>EDATE(A302,1)</f>
         <v>42795</v>
@@ -10128,7 +10132,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="39">
         <f t="shared" ref="A305:A312" si="19">EDATE(A304,1)</f>
         <v>42826</v>
@@ -10155,7 +10159,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -10176,7 +10180,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -10203,7 +10207,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -10224,7 +10228,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="39">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -10251,7 +10255,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -10278,7 +10282,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -10305,7 +10309,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -10332,7 +10336,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="39">
         <f>EDATE(A312,1)</f>
         <v>43070</v>
@@ -10357,7 +10361,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="56" t="s">
         <v>152</v>
       </c>
@@ -10375,7 +10379,7 @@
       <c r="J314" s="12"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="39">
         <v>43101</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>50</v>
@@ -10423,7 +10427,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="39">
         <f>EDATE(A315,1)</f>
         <v>43132</v>
@@ -10444,7 +10448,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="39">
         <f t="shared" ref="A318:A334" si="20">EDATE(A317,1)</f>
         <v>43160</v>
@@ -10469,7 +10473,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>50</v>
@@ -10491,7 +10495,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>43191</v>
@@ -10518,7 +10522,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -10540,7 +10544,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>43221</v>
@@ -10567,7 +10571,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="39"/>
       <c r="B323" s="20" t="s">
         <v>63</v>
@@ -10584,7 +10588,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>145</v>
@@ -10603,7 +10607,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>50</v>
@@ -10622,7 +10626,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="39"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -10641,7 +10645,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="39">
         <f>EDATE(A322,1)</f>
         <v>43252</v>
@@ -10662,7 +10666,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -10689,7 +10693,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -10710,7 +10714,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -10731,7 +10735,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -10758,7 +10762,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>145</v>
@@ -10780,7 +10784,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="39">
         <f>EDATE(A331,1)</f>
         <v>43405</v>
@@ -10807,7 +10811,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39">
         <f t="shared" si="20"/>
         <v>43435</v>
@@ -10828,7 +10832,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="52" t="s">
         <v>155</v>
       </c>
@@ -10846,7 +10850,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39">
         <v>43466</v>
       </c>
@@ -10872,7 +10876,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10897,7 +10901,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="39">
         <f t="shared" ref="A338:A350" si="21">EDATE(A337,1)</f>
         <v>43525</v>
@@ -10918,7 +10922,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -10939,7 +10943,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -10966,7 +10970,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>69</v>
@@ -10988,7 +10992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <f>EDATE(A340,1)</f>
         <v>43617</v>
@@ -11015,7 +11019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -11042,7 +11046,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -11064,7 +11068,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <f>EDATE(A343,1)</f>
         <v>43678</v>
@@ -11085,7 +11089,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -11112,7 +11116,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="39"/>
       <c r="B347" s="15" t="s">
         <v>53</v>
@@ -11134,7 +11138,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="39">
         <f>EDATE(A346,1)</f>
         <v>43739</v>
@@ -11155,7 +11159,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <f>EDATE(A348,1)</f>
         <v>43770</v>
@@ -11182,7 +11186,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -11203,7 +11207,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="52" t="s">
         <v>160</v>
       </c>
@@ -11221,7 +11225,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <v>43831</v>
       </c>
@@ -11245,7 +11249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>95</v>
@@ -11265,7 +11269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39">
         <f>EDATE(A352,1)</f>
         <v>43862</v>
@@ -11286,7 +11290,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39">
         <f t="shared" ref="A355:A366" si="22">EDATE(A354,1)</f>
         <v>43891</v>
@@ -11307,7 +11311,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -11328,7 +11332,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -11349,7 +11353,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -11376,7 +11380,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -11397,7 +11401,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -11418,7 +11422,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -11445,7 +11449,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39"/>
       <c r="B362" s="15" t="s">
         <v>145</v>
@@ -11464,7 +11468,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39"/>
       <c r="B363" s="15" t="s">
         <v>145</v>
@@ -11483,7 +11487,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <f>EDATE(A361,1)</f>
         <v>44105</v>
@@ -11504,7 +11508,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -11525,7 +11529,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -11552,7 +11556,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="52" t="s">
         <v>166</v>
       </c>
@@ -11570,7 +11574,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>44197</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <f>EDATE(A368,1)</f>
         <v>44228</v>
@@ -11615,7 +11619,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <f t="shared" ref="A370:A379" si="23">EDATE(A369,1)</f>
         <v>44256</v>
@@ -11636,7 +11640,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -11657,7 +11661,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -11678,7 +11682,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -11699,7 +11703,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -11720,7 +11724,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -11741,7 +11745,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -11762,7 +11766,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -11783,7 +11787,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -11804,7 +11808,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <f t="shared" si="23"/>
         <v>44531</v>
@@ -11831,7 +11835,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39"/>
       <c r="B380" s="20" t="s">
         <v>164</v>
@@ -11853,7 +11857,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="52" t="s">
         <v>169</v>
       </c>
@@ -11871,7 +11875,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>44562</v>
       </c>
@@ -11891,7 +11895,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <f>EDATE(A382,1)</f>
         <v>44593</v>
@@ -11912,7 +11916,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <f t="shared" ref="A384:A392" si="24">EDATE(A383,1)</f>
         <v>44621</v>
@@ -11939,7 +11943,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <f t="shared" si="24"/>
         <v>44652</v>
@@ -11960,7 +11964,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <f t="shared" si="24"/>
         <v>44682</v>
@@ -11985,7 +11989,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12007,7 +12011,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39">
         <f>EDATE(A386,1)</f>
         <v>44713</v>
@@ -12028,7 +12032,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39">
         <f t="shared" si="24"/>
         <v>44743</v>
@@ -12055,7 +12059,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -12074,7 +12078,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <f>EDATE(A389,1)</f>
         <v>44774</v>
@@ -12095,7 +12099,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -12122,7 +12126,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
         <v>44835</v>
       </c>
@@ -12142,7 +12146,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="39">
         <v>44866</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <v>44896</v>
       </c>
@@ -12194,7 +12198,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="52" t="s">
         <v>172</v>
       </c>
@@ -12212,7 +12216,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39">
         <v>44927</v>
       </c>
@@ -12238,7 +12242,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <v>44958</v>
       </c>
@@ -12262,7 +12266,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <v>44986</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <v>45017</v>
       </c>
@@ -12308,7 +12312,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39">
         <v>45047</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>45078</v>
       </c>
@@ -12348,7 +12352,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="39">
         <v>45108</v>
       </c>
@@ -12366,7 +12370,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12382,7 +12386,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12413,10 +12417,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12439,29 +12443,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -12474,7 +12478,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -12503,7 +12507,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>91.04</v>
       </c>
@@ -12527,17 +12531,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>179</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -12558,7 +12565,11 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>735.62000000000012</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -12585,7 +12596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12611,7 +12622,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12637,7 +12648,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12663,7 +12674,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12689,7 +12700,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12715,7 +12726,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12741,7 +12752,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12767,7 +12778,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12787,7 +12798,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12807,7 +12818,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12827,7 +12838,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -12848,7 +12859,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -12869,7 +12880,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -12890,7 +12901,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -12911,7 +12922,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -12932,7 +12943,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -12953,7 +12964,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -12974,7 +12985,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -12995,7 +13006,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13016,7 +13027,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13037,7 +13048,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13058,7 +13069,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13079,7 +13090,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13100,7 +13111,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13121,7 +13132,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13142,7 +13153,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13163,7 +13174,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13184,7 +13195,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13205,7 +13216,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13226,7 +13237,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13247,7 +13258,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13256,7 +13267,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13265,7 +13276,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13274,7 +13285,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13283,7 +13294,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13292,7 +13303,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13301,7 +13312,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13310,7 +13321,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13319,7 +13330,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13328,7 +13339,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13337,7 +13348,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13346,7 +13357,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13355,7 +13366,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13364,7 +13375,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13373,7 +13384,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13382,7 +13393,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13391,7 +13402,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13400,7 +13411,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13409,7 +13420,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13418,7 +13429,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13427,7 +13438,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13436,7 +13447,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13445,7 +13456,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13454,7 +13465,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13463,7 +13474,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13472,7 +13483,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13481,7 +13492,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13490,7 +13501,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13499,7 +13510,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13508,7 +13519,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
+++ b/REGULAR/OJT/NEW DONE/COTONER, NELIA C..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6468827D-40D2-4495-8EE8-DB9DFE81085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="180">
   <si>
     <t>PERIOD</t>
   </si>
@@ -580,7 +579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1470,7 +1469,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1512,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1576,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1637,7 +1636,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1702,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1863,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,7 +1922,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1987,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2030,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2105,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2291,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2357,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2415,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2481,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2537,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2612,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2656,7 +2655,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,7 +2721,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2777,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2875,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2938,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2987,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3005,26 +3004,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K405" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K405" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K405"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3036,13 +3035,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3051,14 +3050,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3362,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3372,7 +3371,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3380,34 +3379,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2820" topLeftCell="A344" activePane="bottomLeft"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I395" sqref="I395"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2820" topLeftCell="A383"/>
+      <selection activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="K403" sqref="K403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3427,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3470,7 +3469,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3478,7 +3477,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3491,7 +3490,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -3508,7 +3507,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
@@ -3552,7 +3551,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>315.79000000000002</v>
+        <v>316.04000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3562,12 +3561,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>419.83000000000004</v>
+        <v>421.08000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3591,7 +3590,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3610,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>47</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>50</v>
@@ -3674,7 +3673,7 @@
         <v>47270</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -3695,7 +3694,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" ref="A16:A20" si="0">EDATE(A15,1)</f>
         <v>36008</v>
@@ -3722,7 +3721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -3749,7 +3748,7 @@
         <v>47362</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -3776,7 +3775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -3803,7 +3802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -3830,7 +3829,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52" t="s">
         <v>59</v>
       </c>
@@ -3848,7 +3847,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>36161</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>50</v>
@@ -3893,7 +3892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>50</v>
@@ -3912,7 +3911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <f>EDATE(A22,1)</f>
         <v>36192</v>
@@ -3937,7 +3936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <f t="shared" ref="A26:A36" si="1">EDATE(A25,1)</f>
         <v>36220</v>
@@ -3958,7 +3957,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <f t="shared" si="1"/>
         <v>36251</v>
@@ -3985,7 +3984,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -4004,7 +4003,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>50</v>
@@ -4023,7 +4022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36281</v>
@@ -4044,7 +4043,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4065,7 +4064,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4092,7 +4091,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <f>EDATE(A32,1)</f>
         <v>36373</v>
@@ -4119,7 +4118,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <f t="shared" si="1"/>
         <v>36404</v>
@@ -4140,7 +4139,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f t="shared" si="1"/>
         <v>36434</v>
@@ -4161,7 +4160,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <f t="shared" si="1"/>
         <v>36465</v>
@@ -4188,7 +4187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f>EDATE(A36,1)</f>
         <v>36495</v>
@@ -4213,7 +4212,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
         <v>68</v>
       </c>
@@ -4233,7 +4232,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36526</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <f>EDATE(A39,1)</f>
         <v>36557</v>
@@ -4274,7 +4273,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" ref="A41:A50" si="2">EDATE(A40,1)</f>
         <v>36586</v>
@@ -4295,7 +4294,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="2"/>
         <v>36617</v>
@@ -4316,7 +4315,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <f t="shared" si="2"/>
         <v>36647</v>
@@ -4337,7 +4336,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <f t="shared" si="2"/>
         <v>36678</v>
@@ -4358,7 +4357,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -4379,7 +4378,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -4400,7 +4399,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <f t="shared" si="2"/>
         <v>36770</v>
@@ -4421,7 +4420,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <f>EDATE(A47,1)</f>
         <v>36800</v>
@@ -4442,7 +4441,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <f t="shared" si="2"/>
         <v>36831</v>
@@ -4469,7 +4468,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <f t="shared" si="2"/>
         <v>36861</v>
@@ -4494,7 +4493,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
         <v>72</v>
       </c>
@@ -4512,7 +4511,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>36892</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <f>EDATE(A52,1)</f>
         <v>36923</v>
@@ -4559,7 +4558,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <f t="shared" ref="A54:A63" si="3">EDATE(A53,1)</f>
         <v>36951</v>
@@ -4580,7 +4579,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <f t="shared" si="3"/>
         <v>36982</v>
@@ -4601,7 +4600,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <f t="shared" si="3"/>
         <v>37012</v>
@@ -4628,7 +4627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <f t="shared" si="3"/>
         <v>37043</v>
@@ -4649,7 +4648,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -4670,7 +4669,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f t="shared" si="3"/>
         <v>37104</v>
@@ -4691,7 +4690,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -4712,7 +4711,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <f>EDATE(A60,1)</f>
         <v>37165</v>
@@ -4733,7 +4732,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -4760,7 +4759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -4781,7 +4780,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
         <v>76</v>
       </c>
@@ -4799,7 +4798,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>37257</v>
       </c>
@@ -4819,7 +4818,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f>EDATE(A65,1)</f>
         <v>37288</v>
@@ -4840,7 +4839,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <f t="shared" ref="A67:A81" si="4">EDATE(A66,1)</f>
         <v>37316</v>
@@ -4861,7 +4860,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -4882,7 +4881,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -4909,7 +4908,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>50</v>
@@ -4928,7 +4927,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="20" t="s">
         <v>63</v>
@@ -4945,7 +4944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -4964,7 +4963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>50</v>
@@ -4983,7 +4982,7 @@
         <v>46508</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <f>EDATE(A69,1)</f>
         <v>37408</v>
@@ -5010,7 +5009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20" t="s">
         <v>51</v>
@@ -5029,7 +5028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <f>EDATE(A74,1)</f>
         <v>37438</v>
@@ -5050,7 +5049,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39">
         <f t="shared" si="4"/>
         <v>37469</v>
@@ -5077,7 +5076,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39">
         <f t="shared" si="4"/>
         <v>37500</v>
@@ -5098,7 +5097,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39">
         <f>EDATE(A78,1)</f>
         <v>37530</v>
@@ -5119,7 +5118,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -5140,7 +5139,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -5165,7 +5164,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="52" t="s">
         <v>81</v>
       </c>
@@ -5183,7 +5182,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39">
         <v>37622</v>
       </c>
@@ -5203,7 +5202,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5224,7 +5223,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39">
         <f t="shared" ref="A85:A94" si="5">EDATE(A84,1)</f>
         <v>37681</v>
@@ -5245,7 +5244,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39">
         <f t="shared" si="5"/>
         <v>37712</v>
@@ -5266,7 +5265,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -5287,7 +5286,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -5308,7 +5307,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -5329,7 +5328,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -5350,7 +5349,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -5371,7 +5370,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39">
         <f t="shared" si="5"/>
         <v>37895</v>
@@ -5392,7 +5391,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39">
         <f t="shared" si="5"/>
         <v>37926</v>
@@ -5419,7 +5418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39">
         <f t="shared" si="5"/>
         <v>37956</v>
@@ -5444,7 +5443,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="52" t="s">
         <v>82</v>
       </c>
@@ -5462,7 +5461,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39">
         <v>37987</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39">
         <f>EDATE(A96,1)</f>
         <v>38018</v>
@@ -5503,7 +5502,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39">
         <f t="shared" ref="A98:A106" si="6">EDATE(A97,1)</f>
         <v>38047</v>
@@ -5524,7 +5523,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -5545,7 +5544,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -5570,7 +5569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -5597,7 +5596,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -5618,7 +5617,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -5639,7 +5638,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -5660,7 +5659,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -5681,7 +5680,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39">
         <f t="shared" si="6"/>
         <v>38292</v>
@@ -5702,7 +5701,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39">
         <f>EDATE(A106,1)</f>
         <v>38322</v>
@@ -5729,7 +5728,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>67</v>
@@ -5749,7 +5748,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="52" t="s">
         <v>84</v>
       </c>
@@ -5767,7 +5766,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39">
         <v>38353</v>
       </c>
@@ -5787,7 +5786,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39">
         <f>EDATE(A110,1)</f>
         <v>38384</v>
@@ -5808,7 +5807,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39">
         <f t="shared" ref="A112:A122" si="7">EDATE(A111,1)</f>
         <v>38412</v>
@@ -5829,7 +5828,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -5856,7 +5855,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20" t="s">
         <v>85</v>
@@ -5873,7 +5872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39">
         <f>EDATE(A113,1)</f>
         <v>38473</v>
@@ -5894,7 +5893,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -5921,7 +5920,7 @@
         <v>46905</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -5942,7 +5941,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -5963,7 +5962,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -5984,7 +5983,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -6005,7 +6004,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -6032,7 +6031,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39">
         <f t="shared" si="7"/>
         <v>38687</v>
@@ -6059,7 +6058,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="20" t="s">
         <v>50</v>
@@ -6081,7 +6080,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="20" t="s">
         <v>67</v>
@@ -6103,7 +6102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>71</v>
@@ -6123,7 +6122,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="52" t="s">
         <v>88</v>
       </c>
@@ -6141,7 +6140,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39">
         <v>38718</v>
       </c>
@@ -6165,7 +6164,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="39">
         <f>EDATE(A127,1)</f>
         <v>38749</v>
@@ -6192,7 +6191,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="39">
         <f t="shared" ref="A129:A139" si="8">EDATE(A128,1)</f>
         <v>38777</v>
@@ -6213,7 +6212,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39">
         <f t="shared" si="8"/>
         <v>38808</v>
@@ -6234,7 +6233,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="39">
         <f t="shared" si="8"/>
         <v>38838</v>
@@ -6255,7 +6254,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -6282,7 +6281,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="39">
         <f t="shared" si="8"/>
         <v>38899</v>
@@ -6309,7 +6308,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="39">
         <f t="shared" si="8"/>
         <v>38930</v>
@@ -6330,7 +6329,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -6357,7 +6356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="39">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -6384,7 +6383,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
       <c r="B137" s="20" t="s">
         <v>92</v>
@@ -6404,7 +6403,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="39">
         <f>EDATE(A136,1)</f>
         <v>39022</v>
@@ -6425,7 +6424,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="39">
         <f t="shared" si="8"/>
         <v>39052</v>
@@ -6446,7 +6445,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
         <v>94</v>
       </c>
@@ -6464,7 +6463,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="39">
         <v>39083</v>
       </c>
@@ -6484,7 +6483,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A141,1)</f>
         <v>39114</v>
@@ -6505,7 +6504,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" ref="A143:A151" si="9">EDATE(A142,1)</f>
         <v>39142</v>
@@ -6526,7 +6525,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="9"/>
         <v>39173</v>
@@ -6553,7 +6552,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>39203</v>
@@ -6574,7 +6573,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -6595,7 +6594,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>39264</v>
@@ -6616,7 +6615,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>39295</v>
@@ -6637,7 +6636,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>39326</v>
@@ -6664,7 +6663,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -6685,7 +6684,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="9"/>
         <v>39387</v>
@@ -6712,7 +6711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>95</v>
@@ -6729,7 +6728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>71</v>
@@ -6748,7 +6747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>39417</v>
@@ -6769,7 +6768,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="56" t="s">
         <v>99</v>
       </c>
@@ -6787,7 +6786,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="39">
         <v>39448</v>
       </c>
@@ -6807,7 +6806,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="39">
         <f>EDATE(A156,1)</f>
         <v>39479</v>
@@ -6834,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="39">
         <f t="shared" ref="A158:A166" si="10">EDATE(A157,1)</f>
         <v>39508</v>
@@ -6855,7 +6854,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="39">
         <f t="shared" si="10"/>
         <v>39539</v>
@@ -6876,7 +6875,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="39">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -6897,7 +6896,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="39">
         <f t="shared" si="10"/>
         <v>39600</v>
@@ -6918,7 +6917,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="39">
         <f t="shared" si="10"/>
         <v>39630</v>
@@ -6939,7 +6938,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="39">
         <f t="shared" si="10"/>
         <v>39661</v>
@@ -6960,7 +6959,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="39">
         <f t="shared" si="10"/>
         <v>39692</v>
@@ -6981,7 +6980,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="39">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -7002,7 +7001,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="39">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -7027,7 +7026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
       <c r="B167" s="20" t="s">
         <v>63</v>
@@ -7044,7 +7043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>103</v>
@@ -7063,7 +7062,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="39">
         <f>EDATE(A166,1)</f>
         <v>39783</v>
@@ -7084,7 +7083,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="52" t="s">
         <v>104</v>
       </c>
@@ -7102,7 +7101,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="39">
         <v>39814</v>
       </c>
@@ -7128,7 +7127,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>39845</v>
@@ -7155,7 +7154,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" ref="A173:A180" si="11">EDATE(A172,1)</f>
         <v>39873</v>
@@ -7176,7 +7175,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="11"/>
         <v>39904</v>
@@ -7203,7 +7202,7 @@
         <v>46844</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="11"/>
         <v>39934</v>
@@ -7224,7 +7223,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="11"/>
         <v>39965</v>
@@ -7251,7 +7250,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39995</v>
@@ -7272,7 +7271,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -7293,7 +7292,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -7314,7 +7313,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>40087</v>
@@ -7341,7 +7340,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>95</v>
@@ -7358,7 +7357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>92</v>
@@ -7377,7 +7376,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A180,1)</f>
         <v>40118</v>
@@ -7404,7 +7403,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A183,1)</f>
         <v>40148</v>
@@ -7425,7 +7424,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="52" t="s">
         <v>108</v>
       </c>
@@ -7443,7 +7442,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="39">
         <v>40179</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="39">
         <f>EDATE(A186,1)</f>
         <v>40210</v>
@@ -7494,7 +7493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="39">
         <f t="shared" ref="A188:A197" si="12">EDATE(A187,1)</f>
         <v>40238</v>
@@ -7515,7 +7514,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="39">
         <f t="shared" si="12"/>
         <v>40269</v>
@@ -7536,7 +7535,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="39">
         <f t="shared" si="12"/>
         <v>40299</v>
@@ -7563,7 +7562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="39">
         <f t="shared" si="12"/>
         <v>40330</v>
@@ -7584,7 +7583,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="39">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -7605,7 +7604,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="39">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -7632,7 +7631,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="39"/>
       <c r="B194" s="20" t="s">
         <v>50</v>
@@ -7651,7 +7650,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="39">
         <f>EDATE(A193,1)</f>
         <v>40422</v>
@@ -7672,7 +7671,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="39">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -7693,7 +7692,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="39">
         <f t="shared" si="12"/>
         <v>40483</v>
@@ -7720,7 +7719,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="39"/>
       <c r="B198" s="20" t="s">
         <v>50</v>
@@ -7742,7 +7741,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="39">
         <f>EDATE(A197,1)</f>
         <v>40513</v>
@@ -7767,7 +7766,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="52" t="s">
         <v>111</v>
       </c>
@@ -7785,7 +7784,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="39">
         <v>40544</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>51</v>
@@ -7830,7 +7829,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="39">
         <f>EDATE(A201,1)</f>
         <v>40575</v>
@@ -7855,7 +7854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="39">
         <f t="shared" ref="A204:A212" si="13">EDATE(A203,1)</f>
         <v>40603</v>
@@ -7882,7 +7881,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="39">
         <f t="shared" si="13"/>
         <v>40634</v>
@@ -7903,7 +7902,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="39">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -7928,7 +7927,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="39">
         <f t="shared" si="13"/>
         <v>40695</v>
@@ -7949,7 +7948,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="39">
         <f t="shared" si="13"/>
         <v>40725</v>
@@ -7970,7 +7969,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="39">
         <f t="shared" si="13"/>
         <v>40756</v>
@@ -7991,7 +7990,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="39">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -8012,7 +8011,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="39">
         <f t="shared" si="13"/>
         <v>40817</v>
@@ -8039,7 +8038,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="39">
         <f t="shared" si="13"/>
         <v>40848</v>
@@ -8066,7 +8065,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="39"/>
       <c r="B213" s="15" t="s">
         <v>50</v>
@@ -8085,7 +8084,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="39">
         <f>EDATE(A212,1)</f>
         <v>40878</v>
@@ -8112,7 +8111,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="52" t="s">
         <v>119</v>
       </c>
@@ -8130,7 +8129,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="39">
         <v>40909</v>
       </c>
@@ -8150,7 +8149,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="39">
         <f>EDATE(A216,1)</f>
         <v>40940</v>
@@ -8177,7 +8176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="39"/>
       <c r="B218" s="20" t="s">
         <v>63</v>
@@ -8197,7 +8196,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="39">
         <f>EDATE(A217,1)</f>
         <v>40969</v>
@@ -8218,7 +8217,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="39">
         <f t="shared" ref="A220:A229" si="14">EDATE(A219,1)</f>
         <v>41000</v>
@@ -8239,7 +8238,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="39">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -8260,7 +8259,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="39">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -8281,7 +8280,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="39">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -8308,7 +8307,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="39"/>
       <c r="B224" s="20" t="s">
         <v>50</v>
@@ -8330,7 +8329,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="39">
         <f>EDATE(A223,1)</f>
         <v>41122</v>
@@ -8351,7 +8350,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="39">
         <f t="shared" si="14"/>
         <v>41153</v>
@@ -8372,7 +8371,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="39">
         <f>EDATE(A226,1)</f>
         <v>41183</v>
@@ -8399,7 +8398,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="39">
         <f t="shared" si="14"/>
         <v>41214</v>
@@ -8420,7 +8419,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="39">
         <f t="shared" si="14"/>
         <v>41244</v>
@@ -8445,7 +8444,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="52" t="s">
         <v>120</v>
       </c>
@@ -8463,7 +8462,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="39">
         <v>41275</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="39"/>
       <c r="B232" s="20" t="s">
         <v>51</v>
@@ -8511,7 +8510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="39">
         <f>EDATE(A231,1)</f>
         <v>41306</v>
@@ -8538,7 +8537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>63</v>
@@ -8558,7 +8557,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>41334</v>
@@ -8579,7 +8578,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="39">
         <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>41365</v>
@@ -8600,7 +8599,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="39">
         <f t="shared" si="15"/>
         <v>41395</v>
@@ -8627,7 +8626,7 @@
         <v>46874</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="39">
         <f t="shared" si="15"/>
         <v>41426</v>
@@ -8648,7 +8647,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="39">
         <f t="shared" si="15"/>
         <v>41456</v>
@@ -8669,7 +8668,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="39">
         <f t="shared" si="15"/>
         <v>41487</v>
@@ -8690,7 +8689,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="39">
         <f t="shared" si="15"/>
         <v>41518</v>
@@ -8715,7 +8714,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="39">
         <f t="shared" si="15"/>
         <v>41548</v>
@@ -8738,7 +8737,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="39">
         <f t="shared" si="15"/>
         <v>41579</v>
@@ -8765,7 +8764,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="39">
         <f t="shared" si="15"/>
         <v>41609</v>
@@ -8792,7 +8791,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="39"/>
       <c r="B245" s="20" t="s">
         <v>71</v>
@@ -8814,7 +8813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
         <v>131</v>
       </c>
@@ -8832,7 +8831,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="39">
         <v>41640</v>
       </c>
@@ -8858,7 +8857,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -8877,7 +8876,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="39"/>
       <c r="B249" s="20" t="s">
         <v>63</v>
@@ -8894,7 +8893,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="39">
         <f>EDATE(A247,1)</f>
         <v>41671</v>
@@ -8915,7 +8914,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="39">
         <f t="shared" ref="A251:A262" si="16">EDATE(A250,1)</f>
         <v>41699</v>
@@ -8942,7 +8941,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="39">
         <f t="shared" si="16"/>
         <v>41730</v>
@@ -8963,7 +8962,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="39">
         <f t="shared" si="16"/>
         <v>41760</v>
@@ -8990,7 +8989,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="39"/>
       <c r="B254" s="20" t="s">
         <v>133</v>
@@ -9009,7 +9008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="39"/>
       <c r="B255" s="20" t="s">
         <v>51</v>
@@ -9028,7 +9027,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="39"/>
       <c r="B256" s="20" t="s">
         <v>85</v>
@@ -9045,7 +9044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="39">
         <f>EDATE(A253,1)</f>
         <v>41791</v>
@@ -9066,7 +9065,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="39">
         <f t="shared" si="16"/>
         <v>41821</v>
@@ -9093,7 +9092,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>50</v>
@@ -9115,7 +9114,7 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="39">
         <f>EDATE(A258,1)</f>
         <v>41852</v>
@@ -9136,7 +9135,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="39">
         <f t="shared" si="16"/>
         <v>41883</v>
@@ -9163,7 +9162,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="39">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -9190,7 +9189,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="39"/>
       <c r="B263" s="20" t="s">
         <v>71</v>
@@ -9212,7 +9211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="39">
         <f>EDATE(A262,1)</f>
         <v>41944</v>
@@ -9239,7 +9238,7 @@
         <v>47058</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="39">
         <f>EDATE(A264,1)</f>
         <v>41974</v>
@@ -9260,7 +9259,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="52" t="s">
         <v>141</v>
       </c>
@@ -9278,7 +9277,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="39">
         <v>42005</v>
       </c>
@@ -9298,7 +9297,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="39">
         <f>EDATE(A267,1)</f>
         <v>42036</v>
@@ -9323,7 +9322,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="39">
         <f t="shared" ref="A269:A278" si="17">EDATE(A268,1)</f>
         <v>42064</v>
@@ -9348,7 +9347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="39">
         <f t="shared" si="17"/>
         <v>42095</v>
@@ -9375,7 +9374,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="39">
         <f t="shared" si="17"/>
         <v>42125</v>
@@ -9396,7 +9395,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="39">
         <f t="shared" si="17"/>
         <v>42156</v>
@@ -9417,7 +9416,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="39">
         <f t="shared" si="17"/>
         <v>42186</v>
@@ -9438,7 +9437,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="39">
         <f t="shared" si="17"/>
         <v>42217</v>
@@ -9463,7 +9462,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="39">
         <f t="shared" si="17"/>
         <v>42248</v>
@@ -9490,7 +9489,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -9512,7 +9511,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <f>EDATE(A275,1)</f>
         <v>42278</v>
@@ -9539,7 +9538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <f t="shared" si="17"/>
         <v>42309</v>
@@ -9566,7 +9565,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39"/>
       <c r="B279" s="20" t="s">
         <v>145</v>
@@ -9585,7 +9584,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39"/>
       <c r="B280" s="20" t="s">
         <v>50</v>
@@ -9604,7 +9603,7 @@
         <v>46692</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>50</v>
@@ -9623,7 +9622,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39"/>
       <c r="B282" s="20" t="s">
         <v>145</v>
@@ -9642,7 +9641,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <f>EDATE(A278,1)</f>
         <v>42339</v>
@@ -9663,7 +9662,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="52" t="s">
         <v>146</v>
       </c>
@@ -9681,7 +9680,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>42370</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <f>EDATE(A285,1)</f>
         <v>42401</v>
@@ -9732,7 +9731,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>145</v>
@@ -9752,7 +9751,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <f>EDATE(A286,1)</f>
         <v>42430</v>
@@ -9773,7 +9772,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39">
         <f t="shared" ref="A289:A299" si="18">EDATE(A288,1)</f>
         <v>42461</v>
@@ -9794,7 +9793,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="39">
         <f t="shared" si="18"/>
         <v>42491</v>
@@ -9821,7 +9820,7 @@
         <v>46143</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <f t="shared" si="18"/>
         <v>42522</v>
@@ -9842,7 +9841,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <f t="shared" si="18"/>
         <v>42552</v>
@@ -9867,7 +9866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <f t="shared" si="18"/>
         <v>42583</v>
@@ -9888,7 +9887,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <f t="shared" si="18"/>
         <v>42614</v>
@@ -9915,7 +9914,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39"/>
       <c r="B295" s="20" t="s">
         <v>145</v>
@@ -9934,7 +9933,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39"/>
       <c r="B296" s="20" t="s">
         <v>50</v>
@@ -9953,7 +9952,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <f>EDATE(A294,1)</f>
         <v>42644</v>
@@ -9974,7 +9973,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <f>EDATE(A297,1)</f>
         <v>42675</v>
@@ -9995,7 +9994,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -10020,7 +10019,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="52" t="s">
         <v>148</v>
       </c>
@@ -10038,7 +10037,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>42736</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <f>EDATE(A301,1)</f>
         <v>42767</v>
@@ -10091,7 +10090,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="39"/>
       <c r="B303" s="20" t="s">
         <v>63</v>
@@ -10111,7 +10110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <f>EDATE(A302,1)</f>
         <v>42795</v>
@@ -10132,7 +10131,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39">
         <f t="shared" ref="A305:A312" si="19">EDATE(A304,1)</f>
         <v>42826</v>
@@ -10159,7 +10158,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <f t="shared" si="19"/>
         <v>42856</v>
@@ -10180,7 +10179,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <f t="shared" si="19"/>
         <v>42887</v>
@@ -10207,7 +10206,7 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <f t="shared" si="19"/>
         <v>42917</v>
@@ -10228,7 +10227,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -10255,7 +10254,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <f t="shared" si="19"/>
         <v>42979</v>
@@ -10282,7 +10281,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <f t="shared" si="19"/>
         <v>43009</v>
@@ -10309,7 +10308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -10336,7 +10335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <f>EDATE(A312,1)</f>
         <v>43070</v>
@@ -10361,7 +10360,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="56" t="s">
         <v>152</v>
       </c>
@@ -10379,7 +10378,7 @@
       <c r="J314" s="12"/>
       <c r="K314" s="15"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <v>43101</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39"/>
       <c r="B316" s="20" t="s">
         <v>50</v>
@@ -10427,7 +10426,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39">
         <f>EDATE(A315,1)</f>
         <v>43132</v>
@@ -10448,7 +10447,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="39">
         <f t="shared" ref="A318:A334" si="20">EDATE(A317,1)</f>
         <v>43160</v>
@@ -10473,7 +10472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>50</v>
@@ -10495,7 +10494,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>43191</v>
@@ -10522,7 +10521,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -10544,7 +10543,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>43221</v>
@@ -10571,7 +10570,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39"/>
       <c r="B323" s="20" t="s">
         <v>63</v>
@@ -10588,7 +10587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>145</v>
@@ -10607,7 +10606,7 @@
         <v>45413</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39"/>
       <c r="B325" s="20" t="s">
         <v>50</v>
@@ -10626,7 +10625,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39"/>
       <c r="B326" s="20" t="s">
         <v>50</v>
@@ -10645,7 +10644,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <f>EDATE(A322,1)</f>
         <v>43252</v>
@@ -10666,7 +10665,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <f t="shared" si="20"/>
         <v>43282</v>
@@ -10693,7 +10692,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <f t="shared" si="20"/>
         <v>43313</v>
@@ -10714,7 +10713,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -10735,7 +10734,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39">
         <f t="shared" si="20"/>
         <v>43374</v>
@@ -10762,7 +10761,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>145</v>
@@ -10784,7 +10783,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <f>EDATE(A331,1)</f>
         <v>43405</v>
@@ -10811,7 +10810,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <f t="shared" si="20"/>
         <v>43435</v>
@@ -10832,7 +10831,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="52" t="s">
         <v>155</v>
       </c>
@@ -10850,7 +10849,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <v>43466</v>
       </c>
@@ -10876,7 +10875,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10901,7 +10900,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <f t="shared" ref="A338:A350" si="21">EDATE(A337,1)</f>
         <v>43525</v>
@@ -10922,7 +10921,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -10943,7 +10942,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <f t="shared" si="21"/>
         <v>43586</v>
@@ -10970,7 +10969,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39"/>
       <c r="B341" s="20" t="s">
         <v>69</v>
@@ -10992,7 +10991,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <f>EDATE(A340,1)</f>
         <v>43617</v>
@@ -11019,7 +11018,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -11046,7 +11045,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39"/>
       <c r="B344" s="20" t="s">
         <v>50</v>
@@ -11068,7 +11067,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39">
         <f>EDATE(A343,1)</f>
         <v>43678</v>
@@ -11089,7 +11088,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="39">
         <f t="shared" si="21"/>
         <v>43709</v>
@@ -11116,7 +11115,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39"/>
       <c r="B347" s="15" t="s">
         <v>53</v>
@@ -11138,7 +11137,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <f>EDATE(A346,1)</f>
         <v>43739</v>
@@ -11159,7 +11158,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="15"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <f>EDATE(A348,1)</f>
         <v>43770</v>
@@ -11186,7 +11185,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -11207,7 +11206,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="52" t="s">
         <v>160</v>
       </c>
@@ -11225,7 +11224,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39">
         <v>43831</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>95</v>
@@ -11269,7 +11268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39">
         <f>EDATE(A352,1)</f>
         <v>43862</v>
@@ -11290,7 +11289,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <f t="shared" ref="A355:A366" si="22">EDATE(A354,1)</f>
         <v>43891</v>
@@ -11311,7 +11310,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -11332,7 +11331,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -11353,7 +11352,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -11380,7 +11379,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -11401,7 +11400,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -11422,7 +11421,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -11449,7 +11448,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39"/>
       <c r="B362" s="15" t="s">
         <v>145</v>
@@ -11468,7 +11467,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39"/>
       <c r="B363" s="15" t="s">
         <v>145</v>
@@ -11487,7 +11486,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <f>EDATE(A361,1)</f>
         <v>44105</v>
@@ -11508,7 +11507,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -11529,7 +11528,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <f t="shared" si="22"/>
         <v>44166</v>
@@ -11556,7 +11555,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="52" t="s">
         <v>166</v>
       </c>
@@ -11574,7 +11573,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>44197</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <f>EDATE(A368,1)</f>
         <v>44228</v>
@@ -11619,7 +11618,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <f t="shared" ref="A370:A379" si="23">EDATE(A369,1)</f>
         <v>44256</v>
@@ -11640,7 +11639,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -11661,7 +11660,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -11682,7 +11681,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -11703,7 +11702,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -11724,7 +11723,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -11745,7 +11744,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -11766,7 +11765,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -11787,7 +11786,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <f t="shared" si="23"/>
         <v>44501</v>
@@ -11808,7 +11807,7 @@
       <c r="J378" s="12"/>
       <c r="K378" s="15"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <f t="shared" si="23"/>
         <v>44531</v>
@@ -11835,7 +11834,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39"/>
       <c r="B380" s="20" t="s">
         <v>164</v>
@@ -11857,7 +11856,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="52" t="s">
         <v>169</v>
       </c>
@@ -11875,7 +11874,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>44562</v>
       </c>
@@ -11895,7 +11894,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <f>EDATE(A382,1)</f>
         <v>44593</v>
@@ -11916,7 +11915,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <f t="shared" ref="A384:A392" si="24">EDATE(A383,1)</f>
         <v>44621</v>
@@ -11943,7 +11942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <f t="shared" si="24"/>
         <v>44652</v>
@@ -11964,7 +11963,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <f t="shared" si="24"/>
         <v>44682</v>
@@ -11989,7 +11988,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12011,7 +12010,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <f>EDATE(A386,1)</f>
         <v>44713</v>
@@ -12032,7 +12031,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <f t="shared" si="24"/>
         <v>44743</v>
@@ -12059,7 +12058,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39"/>
       <c r="B390" s="20" t="s">
         <v>50</v>
@@ -12078,7 +12077,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <f>EDATE(A389,1)</f>
         <v>44774</v>
@@ -12099,7 +12098,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <f t="shared" si="24"/>
         <v>44805</v>
@@ -12126,7 +12125,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>44835</v>
       </c>
@@ -12146,7 +12145,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="15"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>44866</v>
       </c>
@@ -12172,7 +12171,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>44896</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="52" t="s">
         <v>172</v>
       </c>
@@ -12216,7 +12215,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>44927</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>44958</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39">
         <v>44986</v>
       </c>
@@ -12292,7 +12291,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="39">
         <v>45017</v>
       </c>
@@ -12312,20 +12311,22 @@
       <c r="J400" s="11"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="39">
         <v>45047</v>
       </c>
       <c r="B401" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C401" s="13"/>
+      <c r="C401" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D401" s="38"/>
       <c r="E401" s="9"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G401" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H401" s="38"/>
       <c r="I401" s="9"/>
@@ -12334,13 +12335,17 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="39">
         <v>45078</v>
       </c>
-      <c r="B402" s="20"/>
+      <c r="B402" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="C402" s="13"/>
-      <c r="D402" s="38"/>
+      <c r="D402" s="38">
+        <v>1</v>
+      </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="41" t="str">
@@ -12350,9 +12355,11 @@
       <c r="H402" s="38"/>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K402" s="59">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="39">
         <v>45108</v>
       </c>
@@ -12370,7 +12377,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="39"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -12386,7 +12393,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="39"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -12417,10 +12424,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12443,7 +12450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12451,21 +12458,21 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -12478,7 +12485,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -12507,7 +12514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.04</v>
       </c>
@@ -12531,17 +12538,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>179</v>
       </c>
@@ -12565,10 +12572,10 @@
       <c r="K6" s="71"/>
       <c r="L6" s="71"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>735.62000000000012</v>
+        <v>737.12000000000012</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
@@ -12596,7 +12603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12622,7 +12629,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12648,7 +12655,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12674,7 +12681,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12700,7 +12707,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12726,7 +12733,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12752,7 +12759,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12778,7 +12785,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12798,7 +12805,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12818,7 +12825,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12838,7 +12845,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -12859,7 +12866,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -12880,7 +12887,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -12901,7 +12908,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -12922,7 +12929,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -12964,7 +12971,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -12985,7 +12992,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13006,7 +13013,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13027,7 +13034,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13048,7 +13055,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13069,7 +13076,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13090,7 +13097,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13111,7 +13118,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13132,7 +13139,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13153,7 +13160,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13174,7 +13181,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13195,7 +13202,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13216,7 +13223,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13237,7 +13244,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13258,7 +13265,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13267,7 +13274,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13276,7 +13283,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13285,7 +13292,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13294,7 +13301,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13303,7 +13310,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13312,7 +13319,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13321,7 +13328,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13330,7 +13337,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13339,7 +13346,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13348,7 +13355,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13357,7 +13364,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13366,7 +13373,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13375,7 +13382,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13384,7 +13391,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13393,7 +13400,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13402,7 +13409,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13411,7 +13418,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13420,7 +13427,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13429,7 +13436,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13438,7 +13445,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13447,7 +13454,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13456,7 +13463,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13465,7 +13472,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13474,7 +13481,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13483,7 +13490,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13492,7 +13499,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13501,7 +13508,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13510,7 +13517,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13519,7 +13526,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
